--- a/realme/Others/Shop wise sales report till 30 October 2021.xlsx
+++ b/realme/Others/Shop wise sales report till 30 October 2021.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="160">
   <si>
     <t>Area</t>
   </si>
@@ -614,7 +615,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -650,11 +651,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -761,6 +773,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,9 +1084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH14" sqref="BH14"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,7 +1422,7 @@
         <v>42</v>
       </c>
       <c r="N2" s="19">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O2" s="19">
         <v>0</v>
@@ -4014,7 +4029,7 @@
         <v>70</v>
       </c>
       <c r="N13" s="20">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O13" s="20">
         <v>40</v>
@@ -4725,7 +4740,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O16" s="20">
         <v>5</v>
@@ -4962,7 +4977,7 @@
         <v>43</v>
       </c>
       <c r="N17" s="20">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O17" s="20">
         <v>50</v>
@@ -5199,7 +5214,7 @@
         <v>8</v>
       </c>
       <c r="N18" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O18" s="20">
         <v>30</v>
@@ -5436,7 +5451,7 @@
         <v>107</v>
       </c>
       <c r="N19" s="20">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O19" s="20">
         <v>60</v>
@@ -5910,7 +5925,7 @@
         <v>47</v>
       </c>
       <c r="N21" s="20">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O21" s="20">
         <v>33</v>
@@ -6621,7 +6636,7 @@
         <v>37</v>
       </c>
       <c r="N24" s="20">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O24" s="20">
         <v>28</v>
@@ -7561,7 +7576,7 @@
         <v>38</v>
       </c>
       <c r="N28" s="20">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O28" s="20">
         <v>40</v>
@@ -8035,7 +8050,7 @@
         <v>65</v>
       </c>
       <c r="N30" s="20">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O30" s="20">
         <v>20</v>
@@ -8264,7 +8279,7 @@
         <v>139</v>
       </c>
       <c r="N31" s="20">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="O31" s="20">
         <v>50</v>
@@ -8975,7 +8990,7 @@
         <v>16</v>
       </c>
       <c r="N34" s="20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O34" s="20">
         <v>3</v>
@@ -9449,7 +9464,7 @@
         <v>14</v>
       </c>
       <c r="N36" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O36" s="20">
         <v>17</v>
@@ -13477,7 +13492,7 @@
       </c>
       <c r="N53" s="26">
         <f>SUM(N2:N52)</f>
-        <v>864</v>
+        <v>887</v>
       </c>
       <c r="O53" s="27">
         <f t="shared" si="0"/>
@@ -13735,6 +13750,9 @@
       <c r="CA53" s="35"/>
     </row>
     <row r="54" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="N54" s="38">
+        <v>887</v>
+      </c>
       <c r="AT54" s="21"/>
       <c r="AU54" s="22"/>
       <c r="AV54" s="22"/>
@@ -13753,9 +13771,2498 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BU11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BY10" sqref="BY10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="17" width="10.140625" customWidth="1"/>
+    <col min="18" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="1"/>
+    <col min="22" max="23" width="9.85546875" customWidth="1"/>
+    <col min="24" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="28" width="11" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" customWidth="1"/>
+    <col min="30" max="30" width="8.42578125" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" customWidth="1"/>
+    <col min="32" max="32" width="8" customWidth="1"/>
+    <col min="33" max="35" width="7.85546875" customWidth="1"/>
+    <col min="36" max="37" width="10.85546875" customWidth="1"/>
+    <col min="38" max="38" width="13.28515625" customWidth="1"/>
+    <col min="39" max="39" width="14.140625" customWidth="1"/>
+    <col min="40" max="40" width="13.28515625" customWidth="1"/>
+    <col min="41" max="41" width="13" customWidth="1"/>
+    <col min="42" max="46" width="13.5703125" customWidth="1"/>
+    <col min="47" max="47" width="11.85546875" customWidth="1"/>
+    <col min="48" max="48" width="11.5703125" customWidth="1"/>
+    <col min="49" max="49" width="11.28515625" customWidth="1"/>
+    <col min="50" max="50" width="11.140625" customWidth="1"/>
+    <col min="51" max="55" width="10.5703125" customWidth="1"/>
+    <col min="56" max="56" width="10.7109375" customWidth="1"/>
+    <col min="57" max="57" width="10.85546875" customWidth="1"/>
+    <col min="58" max="58" width="11" customWidth="1"/>
+    <col min="59" max="59" width="10.42578125" customWidth="1"/>
+    <col min="60" max="64" width="11.42578125" customWidth="1"/>
+    <col min="65" max="65" width="12.42578125" customWidth="1"/>
+    <col min="66" max="66" width="12" customWidth="1"/>
+    <col min="67" max="67" width="12.140625" customWidth="1"/>
+    <col min="68" max="68" width="11.85546875" customWidth="1"/>
+    <col min="69" max="73" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:73" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ1" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR1" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT1" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ1" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA1" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB1" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BC1" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="BH1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI1" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ1" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BP1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BS1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU1" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="20">
+        <v>28</v>
+      </c>
+      <c r="C2" s="20">
+        <v>11</v>
+      </c>
+      <c r="D2" s="20">
+        <v>7</v>
+      </c>
+      <c r="E2" s="20">
+        <v>39</v>
+      </c>
+      <c r="F2" s="20">
+        <v>28</v>
+      </c>
+      <c r="G2" s="20">
+        <v>80</v>
+      </c>
+      <c r="H2" s="20">
+        <v>57</v>
+      </c>
+      <c r="I2" s="20">
+        <v>37</v>
+      </c>
+      <c r="J2" s="20">
+        <v>37</v>
+      </c>
+      <c r="K2" s="20">
+        <v>33</v>
+      </c>
+      <c r="L2" s="20">
+        <v>35</v>
+      </c>
+      <c r="M2" s="20">
+        <v>28</v>
+      </c>
+      <c r="N2" s="20">
+        <v>45</v>
+      </c>
+      <c r="O2" s="20">
+        <v>37</v>
+      </c>
+      <c r="P2" s="20">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>42</v>
+      </c>
+      <c r="R2" s="20">
+        <v>37</v>
+      </c>
+      <c r="S2" s="20">
+        <v>25</v>
+      </c>
+      <c r="T2" s="20">
+        <v>27</v>
+      </c>
+      <c r="U2" s="20">
+        <v>29</v>
+      </c>
+      <c r="V2" s="20">
+        <v>28</v>
+      </c>
+      <c r="W2" s="20">
+        <v>47</v>
+      </c>
+      <c r="X2" s="20">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="20">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="20">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="20">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="20">
+        <v>15</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>17</v>
+      </c>
+      <c r="AG2" s="20">
+        <v>21</v>
+      </c>
+      <c r="AH2" s="20">
+        <v>38</v>
+      </c>
+      <c r="AI2" s="20">
+        <v>30</v>
+      </c>
+      <c r="AJ2" s="20">
+        <v>17</v>
+      </c>
+      <c r="AK2" s="20">
+        <v>16</v>
+      </c>
+      <c r="AL2" s="20">
+        <v>15</v>
+      </c>
+      <c r="AM2" s="20">
+        <v>12</v>
+      </c>
+      <c r="AN2" s="20">
+        <v>10</v>
+      </c>
+      <c r="AO2" s="20">
+        <v>17</v>
+      </c>
+      <c r="AP2" s="20">
+        <v>14</v>
+      </c>
+      <c r="AQ2" s="20">
+        <v>32</v>
+      </c>
+      <c r="AR2" s="20">
+        <v>34</v>
+      </c>
+      <c r="AS2" s="20">
+        <v>36</v>
+      </c>
+      <c r="AT2" s="20">
+        <v>15</v>
+      </c>
+      <c r="AU2" s="20">
+        <v>32</v>
+      </c>
+      <c r="AV2" s="20">
+        <v>25</v>
+      </c>
+      <c r="AW2" s="20">
+        <v>28</v>
+      </c>
+      <c r="AX2" s="20">
+        <v>27</v>
+      </c>
+      <c r="AY2" s="20">
+        <v>24</v>
+      </c>
+      <c r="AZ2" s="20">
+        <v>47</v>
+      </c>
+      <c r="BA2" s="20">
+        <v>34</v>
+      </c>
+      <c r="BB2" s="20">
+        <v>35</v>
+      </c>
+      <c r="BC2" s="20">
+        <v>27</v>
+      </c>
+      <c r="BD2" s="20">
+        <v>20</v>
+      </c>
+      <c r="BE2" s="20">
+        <v>15</v>
+      </c>
+      <c r="BF2" s="20">
+        <v>18</v>
+      </c>
+      <c r="BG2" s="20">
+        <v>18</v>
+      </c>
+      <c r="BH2" s="20">
+        <v>20</v>
+      </c>
+      <c r="BI2" s="20">
+        <v>24</v>
+      </c>
+      <c r="BJ2" s="20">
+        <v>25</v>
+      </c>
+      <c r="BK2" s="20">
+        <v>23</v>
+      </c>
+      <c r="BL2" s="20">
+        <v>20</v>
+      </c>
+      <c r="BM2" s="20">
+        <v>40</v>
+      </c>
+      <c r="BN2" s="20">
+        <v>30</v>
+      </c>
+      <c r="BO2" s="20">
+        <v>35</v>
+      </c>
+      <c r="BP2" s="20">
+        <v>47</v>
+      </c>
+      <c r="BQ2" s="7">
+        <v>32</v>
+      </c>
+      <c r="BR2" s="7">
+        <v>47</v>
+      </c>
+      <c r="BS2" s="7">
+        <v>55</v>
+      </c>
+      <c r="BT2" s="7">
+        <v>45</v>
+      </c>
+      <c r="BU2" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="20">
+        <v>18</v>
+      </c>
+      <c r="C3" s="20">
+        <v>18</v>
+      </c>
+      <c r="D3" s="20">
+        <v>13</v>
+      </c>
+      <c r="E3" s="20">
+        <v>11</v>
+      </c>
+      <c r="F3" s="20">
+        <v>19</v>
+      </c>
+      <c r="G3" s="20">
+        <v>25</v>
+      </c>
+      <c r="H3" s="20">
+        <v>17</v>
+      </c>
+      <c r="I3" s="20">
+        <v>38</v>
+      </c>
+      <c r="J3" s="20">
+        <v>46</v>
+      </c>
+      <c r="K3" s="20">
+        <v>40</v>
+      </c>
+      <c r="L3" s="20">
+        <v>39</v>
+      </c>
+      <c r="M3" s="20">
+        <v>30</v>
+      </c>
+      <c r="N3" s="20">
+        <v>55</v>
+      </c>
+      <c r="O3" s="20">
+        <v>42</v>
+      </c>
+      <c r="P3" s="20">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>45</v>
+      </c>
+      <c r="R3" s="20">
+        <v>43</v>
+      </c>
+      <c r="S3" s="20">
+        <v>28</v>
+      </c>
+      <c r="T3" s="20">
+        <v>39</v>
+      </c>
+      <c r="U3" s="20">
+        <v>35</v>
+      </c>
+      <c r="V3" s="20">
+        <v>32</v>
+      </c>
+      <c r="W3" s="20">
+        <v>47</v>
+      </c>
+      <c r="X3" s="20">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="20">
+        <v>56</v>
+      </c>
+      <c r="Z3" s="20">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="20">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="20">
+        <v>45</v>
+      </c>
+      <c r="AC3" s="20">
+        <v>18</v>
+      </c>
+      <c r="AD3" s="20">
+        <v>20</v>
+      </c>
+      <c r="AE3" s="20">
+        <v>15</v>
+      </c>
+      <c r="AF3" s="20">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="20">
+        <v>21</v>
+      </c>
+      <c r="AH3" s="20">
+        <v>34</v>
+      </c>
+      <c r="AI3" s="20">
+        <v>28</v>
+      </c>
+      <c r="AJ3" s="20">
+        <v>19</v>
+      </c>
+      <c r="AK3" s="20">
+        <v>17</v>
+      </c>
+      <c r="AL3" s="20">
+        <v>20</v>
+      </c>
+      <c r="AM3" s="20">
+        <v>25</v>
+      </c>
+      <c r="AN3" s="20">
+        <v>18</v>
+      </c>
+      <c r="AO3" s="20">
+        <v>29</v>
+      </c>
+      <c r="AP3" s="20">
+        <v>25</v>
+      </c>
+      <c r="AQ3" s="20">
+        <v>21</v>
+      </c>
+      <c r="AR3" s="20">
+        <v>29</v>
+      </c>
+      <c r="AS3" s="20">
+        <v>35</v>
+      </c>
+      <c r="AT3" s="20">
+        <v>23</v>
+      </c>
+      <c r="AU3" s="20">
+        <v>40</v>
+      </c>
+      <c r="AV3" s="20">
+        <v>48</v>
+      </c>
+      <c r="AW3" s="20">
+        <v>35</v>
+      </c>
+      <c r="AX3" s="20">
+        <v>45</v>
+      </c>
+      <c r="AY3" s="20">
+        <v>35</v>
+      </c>
+      <c r="AZ3" s="20">
+        <v>74</v>
+      </c>
+      <c r="BA3" s="20">
+        <v>51</v>
+      </c>
+      <c r="BB3" s="20">
+        <v>47</v>
+      </c>
+      <c r="BC3" s="20">
+        <v>34</v>
+      </c>
+      <c r="BD3" s="20">
+        <v>25</v>
+      </c>
+      <c r="BE3" s="20">
+        <v>22</v>
+      </c>
+      <c r="BF3" s="20">
+        <v>15</v>
+      </c>
+      <c r="BG3" s="20">
+        <v>16</v>
+      </c>
+      <c r="BH3" s="20">
+        <v>19</v>
+      </c>
+      <c r="BI3" s="20">
+        <v>41</v>
+      </c>
+      <c r="BJ3" s="20">
+        <v>42</v>
+      </c>
+      <c r="BK3" s="20">
+        <v>39</v>
+      </c>
+      <c r="BL3" s="20">
+        <v>25</v>
+      </c>
+      <c r="BM3" s="20">
+        <v>50</v>
+      </c>
+      <c r="BN3" s="20">
+        <v>48</v>
+      </c>
+      <c r="BO3" s="20">
+        <v>40</v>
+      </c>
+      <c r="BP3" s="20">
+        <v>45</v>
+      </c>
+      <c r="BQ3" s="7">
+        <v>35</v>
+      </c>
+      <c r="BR3" s="7">
+        <v>45</v>
+      </c>
+      <c r="BS3" s="7">
+        <v>40</v>
+      </c>
+      <c r="BT3" s="7">
+        <v>50</v>
+      </c>
+      <c r="BU3" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="20">
+        <v>35</v>
+      </c>
+      <c r="C4" s="20">
+        <v>14</v>
+      </c>
+      <c r="D4" s="20">
+        <v>10</v>
+      </c>
+      <c r="E4" s="20">
+        <v>61</v>
+      </c>
+      <c r="F4" s="20">
+        <v>35</v>
+      </c>
+      <c r="G4" s="20">
+        <v>66</v>
+      </c>
+      <c r="H4" s="20">
+        <v>52</v>
+      </c>
+      <c r="I4" s="20">
+        <v>47</v>
+      </c>
+      <c r="J4" s="20">
+        <v>49</v>
+      </c>
+      <c r="K4" s="20">
+        <v>33</v>
+      </c>
+      <c r="L4" s="20">
+        <v>32</v>
+      </c>
+      <c r="M4" s="20">
+        <v>29</v>
+      </c>
+      <c r="N4" s="20">
+        <v>40</v>
+      </c>
+      <c r="O4" s="20">
+        <v>31</v>
+      </c>
+      <c r="P4" s="20">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>37</v>
+      </c>
+      <c r="R4" s="20">
+        <v>31</v>
+      </c>
+      <c r="S4" s="20">
+        <v>27</v>
+      </c>
+      <c r="T4" s="20">
+        <v>29</v>
+      </c>
+      <c r="U4" s="20">
+        <v>27</v>
+      </c>
+      <c r="V4" s="20">
+        <v>29</v>
+      </c>
+      <c r="W4" s="20">
+        <v>47</v>
+      </c>
+      <c r="X4" s="20">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="20">
+        <v>58</v>
+      </c>
+      <c r="Z4" s="20">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="20">
+        <v>72</v>
+      </c>
+      <c r="AB4" s="20">
+        <v>43</v>
+      </c>
+      <c r="AC4" s="20">
+        <v>18</v>
+      </c>
+      <c r="AD4" s="20">
+        <v>19</v>
+      </c>
+      <c r="AE4" s="20">
+        <v>20</v>
+      </c>
+      <c r="AF4" s="20">
+        <v>27</v>
+      </c>
+      <c r="AG4" s="20">
+        <v>25</v>
+      </c>
+      <c r="AH4" s="20">
+        <v>48</v>
+      </c>
+      <c r="AI4" s="20">
+        <v>37</v>
+      </c>
+      <c r="AJ4" s="20">
+        <v>30</v>
+      </c>
+      <c r="AK4" s="20">
+        <v>21</v>
+      </c>
+      <c r="AL4" s="20">
+        <v>14</v>
+      </c>
+      <c r="AM4" s="20">
+        <v>12</v>
+      </c>
+      <c r="AN4" s="20">
+        <v>15</v>
+      </c>
+      <c r="AO4" s="20">
+        <v>20</v>
+      </c>
+      <c r="AP4" s="20">
+        <v>17</v>
+      </c>
+      <c r="AQ4" s="20">
+        <v>24</v>
+      </c>
+      <c r="AR4" s="20">
+        <v>25</v>
+      </c>
+      <c r="AS4" s="20">
+        <v>25</v>
+      </c>
+      <c r="AT4" s="20">
+        <v>16</v>
+      </c>
+      <c r="AU4" s="20">
+        <v>10</v>
+      </c>
+      <c r="AV4" s="20">
+        <v>11</v>
+      </c>
+      <c r="AW4" s="20">
+        <v>10</v>
+      </c>
+      <c r="AX4" s="20">
+        <v>11</v>
+      </c>
+      <c r="AY4" s="20">
+        <v>8</v>
+      </c>
+      <c r="AZ4" s="20">
+        <v>23</v>
+      </c>
+      <c r="BA4" s="20">
+        <v>17</v>
+      </c>
+      <c r="BB4" s="20">
+        <v>15</v>
+      </c>
+      <c r="BC4" s="20">
+        <v>8</v>
+      </c>
+      <c r="BD4" s="20">
+        <v>19</v>
+      </c>
+      <c r="BE4" s="20">
+        <v>20</v>
+      </c>
+      <c r="BF4" s="20">
+        <v>15</v>
+      </c>
+      <c r="BG4" s="20">
+        <v>16</v>
+      </c>
+      <c r="BH4" s="20">
+        <v>17</v>
+      </c>
+      <c r="BI4" s="20">
+        <v>27</v>
+      </c>
+      <c r="BJ4" s="20">
+        <v>30</v>
+      </c>
+      <c r="BK4" s="20">
+        <v>32</v>
+      </c>
+      <c r="BL4" s="20">
+        <v>20</v>
+      </c>
+      <c r="BM4" s="20">
+        <v>40</v>
+      </c>
+      <c r="BN4" s="20">
+        <v>40</v>
+      </c>
+      <c r="BO4" s="20">
+        <v>35</v>
+      </c>
+      <c r="BP4" s="20">
+        <v>45</v>
+      </c>
+      <c r="BQ4" s="7">
+        <v>35</v>
+      </c>
+      <c r="BR4" s="7">
+        <v>45</v>
+      </c>
+      <c r="BS4" s="7">
+        <v>45</v>
+      </c>
+      <c r="BT4" s="7">
+        <v>47</v>
+      </c>
+      <c r="BU4" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="20">
+        <v>76</v>
+      </c>
+      <c r="C5" s="20">
+        <v>68</v>
+      </c>
+      <c r="D5" s="20">
+        <v>78</v>
+      </c>
+      <c r="E5" s="20">
+        <v>125</v>
+      </c>
+      <c r="F5" s="20">
+        <v>59</v>
+      </c>
+      <c r="G5" s="20">
+        <v>123</v>
+      </c>
+      <c r="H5" s="20">
+        <v>131</v>
+      </c>
+      <c r="I5" s="20">
+        <v>70</v>
+      </c>
+      <c r="J5" s="20">
+        <v>89</v>
+      </c>
+      <c r="K5" s="20">
+        <v>40</v>
+      </c>
+      <c r="L5" s="20">
+        <v>45</v>
+      </c>
+      <c r="M5" s="20">
+        <v>30</v>
+      </c>
+      <c r="N5" s="20">
+        <v>47</v>
+      </c>
+      <c r="O5" s="20">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>42</v>
+      </c>
+      <c r="R5" s="20">
+        <v>41</v>
+      </c>
+      <c r="S5" s="20">
+        <v>28</v>
+      </c>
+      <c r="T5" s="20">
+        <v>30</v>
+      </c>
+      <c r="U5" s="20">
+        <v>20</v>
+      </c>
+      <c r="V5" s="20">
+        <v>18</v>
+      </c>
+      <c r="W5" s="20">
+        <v>45</v>
+      </c>
+      <c r="X5" s="20">
+        <v>32</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>47</v>
+      </c>
+      <c r="Z5" s="20">
+        <v>56</v>
+      </c>
+      <c r="AA5" s="20">
+        <v>60</v>
+      </c>
+      <c r="AB5" s="20">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="20">
+        <v>32</v>
+      </c>
+      <c r="AD5" s="20">
+        <v>35</v>
+      </c>
+      <c r="AE5" s="20">
+        <v>37</v>
+      </c>
+      <c r="AF5" s="20">
+        <v>42</v>
+      </c>
+      <c r="AG5" s="20">
+        <v>35</v>
+      </c>
+      <c r="AH5" s="20">
+        <v>47</v>
+      </c>
+      <c r="AI5" s="20">
+        <v>38</v>
+      </c>
+      <c r="AJ5" s="20">
+        <v>40</v>
+      </c>
+      <c r="AK5" s="20">
+        <v>39</v>
+      </c>
+      <c r="AL5" s="20">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="20">
+        <v>13</v>
+      </c>
+      <c r="AN5" s="20">
+        <v>10</v>
+      </c>
+      <c r="AO5" s="20">
+        <v>17</v>
+      </c>
+      <c r="AP5" s="20">
+        <v>9</v>
+      </c>
+      <c r="AQ5" s="20">
+        <v>23</v>
+      </c>
+      <c r="AR5" s="20">
+        <v>24</v>
+      </c>
+      <c r="AS5" s="20">
+        <v>24</v>
+      </c>
+      <c r="AT5" s="20">
+        <v>17</v>
+      </c>
+      <c r="AU5" s="20">
+        <v>11</v>
+      </c>
+      <c r="AV5" s="20">
+        <v>14</v>
+      </c>
+      <c r="AW5" s="20">
+        <v>10</v>
+      </c>
+      <c r="AX5" s="20">
+        <v>16</v>
+      </c>
+      <c r="AY5" s="20">
+        <v>9</v>
+      </c>
+      <c r="AZ5" s="20">
+        <v>27</v>
+      </c>
+      <c r="BA5" s="20">
+        <v>17</v>
+      </c>
+      <c r="BB5" s="20">
+        <v>17</v>
+      </c>
+      <c r="BC5" s="20">
+        <v>14</v>
+      </c>
+      <c r="BD5" s="20">
+        <v>17</v>
+      </c>
+      <c r="BE5" s="20">
+        <v>15</v>
+      </c>
+      <c r="BF5" s="20">
+        <v>17</v>
+      </c>
+      <c r="BG5" s="20">
+        <v>10</v>
+      </c>
+      <c r="BH5" s="20">
+        <v>12</v>
+      </c>
+      <c r="BI5" s="20">
+        <v>32</v>
+      </c>
+      <c r="BJ5" s="20">
+        <v>34</v>
+      </c>
+      <c r="BK5" s="20">
+        <v>33</v>
+      </c>
+      <c r="BL5" s="20">
+        <v>19</v>
+      </c>
+      <c r="BM5" s="20">
+        <v>55</v>
+      </c>
+      <c r="BN5" s="20">
+        <v>50</v>
+      </c>
+      <c r="BO5" s="20">
+        <v>40</v>
+      </c>
+      <c r="BP5" s="20">
+        <v>45</v>
+      </c>
+      <c r="BQ5" s="7">
+        <v>38</v>
+      </c>
+      <c r="BR5" s="7">
+        <v>45</v>
+      </c>
+      <c r="BS5" s="7">
+        <v>60</v>
+      </c>
+      <c r="BT5" s="7">
+        <v>45</v>
+      </c>
+      <c r="BU5" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="20">
+        <v>15</v>
+      </c>
+      <c r="C6" s="20">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20">
+        <v>14</v>
+      </c>
+      <c r="E6" s="20">
+        <v>61</v>
+      </c>
+      <c r="F6" s="20">
+        <v>52</v>
+      </c>
+      <c r="G6" s="20">
+        <v>67</v>
+      </c>
+      <c r="H6" s="20">
+        <v>69</v>
+      </c>
+      <c r="I6" s="20">
+        <v>37</v>
+      </c>
+      <c r="J6" s="20">
+        <v>49</v>
+      </c>
+      <c r="K6" s="20">
+        <v>28</v>
+      </c>
+      <c r="L6" s="20">
+        <v>24</v>
+      </c>
+      <c r="M6" s="20">
+        <v>21</v>
+      </c>
+      <c r="N6" s="20">
+        <v>42</v>
+      </c>
+      <c r="O6" s="20">
+        <v>29</v>
+      </c>
+      <c r="P6" s="20">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>39</v>
+      </c>
+      <c r="R6" s="20">
+        <v>29</v>
+      </c>
+      <c r="S6" s="20">
+        <v>18</v>
+      </c>
+      <c r="T6" s="20">
+        <v>28</v>
+      </c>
+      <c r="U6" s="20">
+        <v>30</v>
+      </c>
+      <c r="V6" s="20">
+        <v>27</v>
+      </c>
+      <c r="W6" s="20">
+        <v>47</v>
+      </c>
+      <c r="X6" s="20">
+        <v>34</v>
+      </c>
+      <c r="Y6" s="20">
+        <v>59</v>
+      </c>
+      <c r="Z6" s="20">
+        <v>64</v>
+      </c>
+      <c r="AA6" s="20">
+        <v>68</v>
+      </c>
+      <c r="AB6" s="20">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="20">
+        <v>18</v>
+      </c>
+      <c r="AD6" s="20">
+        <v>15</v>
+      </c>
+      <c r="AE6" s="20">
+        <v>20</v>
+      </c>
+      <c r="AF6" s="20">
+        <v>25</v>
+      </c>
+      <c r="AG6" s="20">
+        <v>29</v>
+      </c>
+      <c r="AH6" s="20">
+        <v>45</v>
+      </c>
+      <c r="AI6" s="20">
+        <v>37</v>
+      </c>
+      <c r="AJ6" s="20">
+        <v>27</v>
+      </c>
+      <c r="AK6" s="20">
+        <v>22</v>
+      </c>
+      <c r="AL6" s="20">
+        <v>28</v>
+      </c>
+      <c r="AM6" s="20">
+        <v>23</v>
+      </c>
+      <c r="AN6" s="20">
+        <v>25</v>
+      </c>
+      <c r="AO6" s="20">
+        <v>35</v>
+      </c>
+      <c r="AP6" s="20">
+        <v>20</v>
+      </c>
+      <c r="AQ6" s="20">
+        <v>47</v>
+      </c>
+      <c r="AR6" s="20">
+        <v>50</v>
+      </c>
+      <c r="AS6" s="20">
+        <v>52</v>
+      </c>
+      <c r="AT6" s="20">
+        <v>30</v>
+      </c>
+      <c r="AU6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="20">
+        <v>5</v>
+      </c>
+      <c r="BE6" s="20">
+        <v>3</v>
+      </c>
+      <c r="BF6" s="20">
+        <v>5</v>
+      </c>
+      <c r="BG6" s="20">
+        <v>5</v>
+      </c>
+      <c r="BH6" s="20">
+        <v>7</v>
+      </c>
+      <c r="BI6" s="20">
+        <v>9</v>
+      </c>
+      <c r="BJ6" s="20">
+        <v>10</v>
+      </c>
+      <c r="BK6" s="20">
+        <v>12</v>
+      </c>
+      <c r="BL6" s="20">
+        <v>7</v>
+      </c>
+      <c r="BM6" s="20">
+        <v>42</v>
+      </c>
+      <c r="BN6" s="20">
+        <v>55</v>
+      </c>
+      <c r="BO6" s="20">
+        <v>65</v>
+      </c>
+      <c r="BP6" s="20">
+        <v>67</v>
+      </c>
+      <c r="BQ6" s="7">
+        <v>55</v>
+      </c>
+      <c r="BR6" s="7">
+        <v>67</v>
+      </c>
+      <c r="BS6" s="7">
+        <v>60</v>
+      </c>
+      <c r="BT6" s="7">
+        <v>65</v>
+      </c>
+      <c r="BU6" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>50</v>
+      </c>
+      <c r="F7" s="20">
+        <v>20</v>
+      </c>
+      <c r="G7" s="20">
+        <v>52</v>
+      </c>
+      <c r="H7" s="20">
+        <v>45</v>
+      </c>
+      <c r="I7" s="20">
+        <v>35</v>
+      </c>
+      <c r="J7" s="20">
+        <v>37</v>
+      </c>
+      <c r="K7" s="20">
+        <v>22</v>
+      </c>
+      <c r="L7" s="20">
+        <v>18</v>
+      </c>
+      <c r="M7" s="20">
+        <v>7</v>
+      </c>
+      <c r="N7" s="20">
+        <v>31</v>
+      </c>
+      <c r="O7" s="20">
+        <v>15</v>
+      </c>
+      <c r="P7" s="20">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>26</v>
+      </c>
+      <c r="R7" s="20">
+        <v>17</v>
+      </c>
+      <c r="S7" s="20">
+        <v>7</v>
+      </c>
+      <c r="T7" s="20">
+        <v>11</v>
+      </c>
+      <c r="U7" s="20">
+        <v>8</v>
+      </c>
+      <c r="V7" s="20">
+        <v>10</v>
+      </c>
+      <c r="W7" s="20">
+        <v>15</v>
+      </c>
+      <c r="X7" s="20">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="20">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="20">
+        <v>27</v>
+      </c>
+      <c r="AA7" s="20">
+        <v>32</v>
+      </c>
+      <c r="AB7" s="20">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="20">
+        <v>8</v>
+      </c>
+      <c r="AD7" s="20">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="20">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="20">
+        <v>9</v>
+      </c>
+      <c r="AG7" s="20">
+        <v>13</v>
+      </c>
+      <c r="AH7" s="20">
+        <v>18</v>
+      </c>
+      <c r="AI7" s="20">
+        <v>12</v>
+      </c>
+      <c r="AJ7" s="20">
+        <v>10</v>
+      </c>
+      <c r="AK7" s="20">
+        <v>6</v>
+      </c>
+      <c r="AL7" s="20">
+        <v>7</v>
+      </c>
+      <c r="AM7" s="20">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="20">
+        <v>6</v>
+      </c>
+      <c r="AO7" s="20">
+        <v>9</v>
+      </c>
+      <c r="AP7" s="20">
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="20">
+        <v>15</v>
+      </c>
+      <c r="AR7" s="20">
+        <v>14</v>
+      </c>
+      <c r="AS7" s="20">
+        <v>15</v>
+      </c>
+      <c r="AT7" s="20">
+        <v>7</v>
+      </c>
+      <c r="AU7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="20">
+        <v>19</v>
+      </c>
+      <c r="BE7" s="20">
+        <v>19</v>
+      </c>
+      <c r="BF7" s="20">
+        <v>25</v>
+      </c>
+      <c r="BG7" s="20">
+        <v>13</v>
+      </c>
+      <c r="BH7" s="20">
+        <v>14</v>
+      </c>
+      <c r="BI7" s="20">
+        <v>27</v>
+      </c>
+      <c r="BJ7" s="20">
+        <v>28</v>
+      </c>
+      <c r="BK7" s="20">
+        <v>30</v>
+      </c>
+      <c r="BL7" s="20">
+        <v>19</v>
+      </c>
+      <c r="BM7" s="20">
+        <v>22</v>
+      </c>
+      <c r="BN7" s="20">
+        <v>19</v>
+      </c>
+      <c r="BO7" s="20">
+        <v>20</v>
+      </c>
+      <c r="BP7" s="20">
+        <v>22</v>
+      </c>
+      <c r="BQ7" s="7">
+        <v>18</v>
+      </c>
+      <c r="BR7" s="7">
+        <v>27</v>
+      </c>
+      <c r="BS7" s="7">
+        <v>31</v>
+      </c>
+      <c r="BT7" s="7">
+        <v>28</v>
+      </c>
+      <c r="BU7" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="20">
+        <v>22</v>
+      </c>
+      <c r="C8" s="20">
+        <v>20</v>
+      </c>
+      <c r="D8" s="20">
+        <v>8</v>
+      </c>
+      <c r="E8" s="20">
+        <v>38</v>
+      </c>
+      <c r="F8" s="20">
+        <v>25</v>
+      </c>
+      <c r="G8" s="20">
+        <v>51</v>
+      </c>
+      <c r="H8" s="20">
+        <v>55</v>
+      </c>
+      <c r="I8" s="20">
+        <v>65</v>
+      </c>
+      <c r="J8" s="20">
+        <v>56</v>
+      </c>
+      <c r="K8" s="20">
+        <v>20</v>
+      </c>
+      <c r="L8" s="20">
+        <v>22</v>
+      </c>
+      <c r="M8" s="20">
+        <v>19</v>
+      </c>
+      <c r="N8" s="20">
+        <v>35</v>
+      </c>
+      <c r="O8" s="20">
+        <v>27</v>
+      </c>
+      <c r="P8" s="20">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>34</v>
+      </c>
+      <c r="R8" s="20">
+        <v>29</v>
+      </c>
+      <c r="S8" s="20">
+        <v>17</v>
+      </c>
+      <c r="T8" s="20">
+        <v>0</v>
+      </c>
+      <c r="U8" s="20">
+        <v>0</v>
+      </c>
+      <c r="V8" s="20">
+        <v>0</v>
+      </c>
+      <c r="W8" s="20">
+        <v>0</v>
+      </c>
+      <c r="X8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="20"/>
+      <c r="BQ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="7"/>
+      <c r="BS8" s="7"/>
+      <c r="BT8" s="7"/>
+      <c r="BU8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="20">
+        <v>26</v>
+      </c>
+      <c r="C9" s="20">
+        <v>30</v>
+      </c>
+      <c r="D9" s="20">
+        <v>31</v>
+      </c>
+      <c r="E9" s="20">
+        <v>50</v>
+      </c>
+      <c r="F9" s="20">
+        <v>65</v>
+      </c>
+      <c r="G9" s="20">
+        <v>80</v>
+      </c>
+      <c r="H9" s="20">
+        <v>65</v>
+      </c>
+      <c r="I9" s="20">
+        <v>43</v>
+      </c>
+      <c r="J9" s="20">
+        <v>39</v>
+      </c>
+      <c r="K9" s="20">
+        <v>50</v>
+      </c>
+      <c r="L9" s="20">
+        <v>52</v>
+      </c>
+      <c r="M9" s="20">
+        <v>50</v>
+      </c>
+      <c r="N9" s="20">
+        <v>59</v>
+      </c>
+      <c r="O9" s="20">
+        <v>51</v>
+      </c>
+      <c r="P9" s="20">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>54</v>
+      </c>
+      <c r="R9" s="20">
+        <v>45</v>
+      </c>
+      <c r="S9" s="20">
+        <v>43</v>
+      </c>
+      <c r="T9" s="20">
+        <v>53</v>
+      </c>
+      <c r="U9" s="20">
+        <v>55</v>
+      </c>
+      <c r="V9" s="20">
+        <v>45</v>
+      </c>
+      <c r="W9" s="20">
+        <v>67</v>
+      </c>
+      <c r="X9" s="20">
+        <v>52</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>75</v>
+      </c>
+      <c r="Z9" s="20">
+        <v>84</v>
+      </c>
+      <c r="AA9" s="20">
+        <v>85</v>
+      </c>
+      <c r="AB9" s="20">
+        <v>65</v>
+      </c>
+      <c r="AC9" s="20">
+        <v>17</v>
+      </c>
+      <c r="AD9" s="20">
+        <v>15</v>
+      </c>
+      <c r="AE9" s="20">
+        <v>14</v>
+      </c>
+      <c r="AF9" s="20">
+        <v>19</v>
+      </c>
+      <c r="AG9" s="20">
+        <v>16</v>
+      </c>
+      <c r="AH9" s="20">
+        <v>28</v>
+      </c>
+      <c r="AI9" s="20">
+        <v>20</v>
+      </c>
+      <c r="AJ9" s="20">
+        <v>22</v>
+      </c>
+      <c r="AK9" s="20">
+        <v>15</v>
+      </c>
+      <c r="AL9" s="20">
+        <v>18</v>
+      </c>
+      <c r="AM9" s="20">
+        <v>16</v>
+      </c>
+      <c r="AN9" s="20">
+        <v>15</v>
+      </c>
+      <c r="AO9" s="20">
+        <v>19</v>
+      </c>
+      <c r="AP9" s="20">
+        <v>17</v>
+      </c>
+      <c r="AQ9" s="20">
+        <v>24</v>
+      </c>
+      <c r="AR9" s="20">
+        <v>21</v>
+      </c>
+      <c r="AS9" s="20">
+        <v>21</v>
+      </c>
+      <c r="AT9" s="20">
+        <v>17</v>
+      </c>
+      <c r="AU9" s="20">
+        <v>30</v>
+      </c>
+      <c r="AV9" s="20">
+        <v>40</v>
+      </c>
+      <c r="AW9" s="20">
+        <v>37</v>
+      </c>
+      <c r="AX9" s="20">
+        <v>42</v>
+      </c>
+      <c r="AY9" s="20">
+        <v>32</v>
+      </c>
+      <c r="AZ9" s="20">
+        <v>56</v>
+      </c>
+      <c r="BA9" s="20">
+        <v>35</v>
+      </c>
+      <c r="BB9" s="20">
+        <v>34</v>
+      </c>
+      <c r="BC9" s="20">
+        <v>29</v>
+      </c>
+      <c r="BD9" s="20">
+        <v>16</v>
+      </c>
+      <c r="BE9" s="20">
+        <v>17</v>
+      </c>
+      <c r="BF9" s="20">
+        <v>10</v>
+      </c>
+      <c r="BG9" s="20">
+        <v>11</v>
+      </c>
+      <c r="BH9" s="20">
+        <v>13</v>
+      </c>
+      <c r="BI9" s="20">
+        <v>24</v>
+      </c>
+      <c r="BJ9" s="20">
+        <v>25</v>
+      </c>
+      <c r="BK9" s="20">
+        <v>27</v>
+      </c>
+      <c r="BL9" s="20">
+        <v>16</v>
+      </c>
+      <c r="BM9" s="20">
+        <v>45</v>
+      </c>
+      <c r="BN9" s="20">
+        <v>50</v>
+      </c>
+      <c r="BO9" s="20">
+        <v>40</v>
+      </c>
+      <c r="BP9" s="20">
+        <v>47</v>
+      </c>
+      <c r="BQ9" s="7">
+        <v>35</v>
+      </c>
+      <c r="BR9" s="7">
+        <v>51</v>
+      </c>
+      <c r="BS9" s="7">
+        <v>47</v>
+      </c>
+      <c r="BT9" s="7">
+        <v>54</v>
+      </c>
+      <c r="BU9" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="20">
+        <v>57</v>
+      </c>
+      <c r="C10" s="20">
+        <v>77</v>
+      </c>
+      <c r="D10" s="20">
+        <v>79</v>
+      </c>
+      <c r="E10" s="20">
+        <v>158</v>
+      </c>
+      <c r="F10" s="20">
+        <v>65</v>
+      </c>
+      <c r="G10" s="20">
+        <v>163</v>
+      </c>
+      <c r="H10" s="20">
+        <v>162</v>
+      </c>
+      <c r="I10" s="20">
+        <v>107</v>
+      </c>
+      <c r="J10" s="20">
+        <v>106</v>
+      </c>
+      <c r="K10" s="20">
+        <v>60</v>
+      </c>
+      <c r="L10" s="20">
+        <v>52</v>
+      </c>
+      <c r="M10" s="20">
+        <v>60</v>
+      </c>
+      <c r="N10" s="20">
+        <v>75</v>
+      </c>
+      <c r="O10" s="20">
+        <v>62</v>
+      </c>
+      <c r="P10" s="20">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>69</v>
+      </c>
+      <c r="R10" s="20">
+        <v>63</v>
+      </c>
+      <c r="S10" s="20">
+        <v>55</v>
+      </c>
+      <c r="T10" s="20">
+        <v>15</v>
+      </c>
+      <c r="U10" s="20">
+        <v>12</v>
+      </c>
+      <c r="V10" s="20">
+        <v>13</v>
+      </c>
+      <c r="W10" s="20">
+        <v>32</v>
+      </c>
+      <c r="X10" s="20">
+        <v>19</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>37</v>
+      </c>
+      <c r="Z10" s="20">
+        <v>48</v>
+      </c>
+      <c r="AA10" s="20">
+        <v>52</v>
+      </c>
+      <c r="AB10" s="20">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="20">
+        <v>31</v>
+      </c>
+      <c r="AD10" s="20">
+        <v>35</v>
+      </c>
+      <c r="AE10" s="20">
+        <v>30</v>
+      </c>
+      <c r="AF10" s="20">
+        <v>34</v>
+      </c>
+      <c r="AG10" s="20">
+        <v>31</v>
+      </c>
+      <c r="AH10" s="20">
+        <v>62</v>
+      </c>
+      <c r="AI10" s="20">
+        <v>48</v>
+      </c>
+      <c r="AJ10" s="20">
+        <v>35</v>
+      </c>
+      <c r="AK10" s="20">
+        <v>32</v>
+      </c>
+      <c r="AL10" s="20">
+        <v>40</v>
+      </c>
+      <c r="AM10" s="20">
+        <v>35</v>
+      </c>
+      <c r="AN10" s="20">
+        <v>30</v>
+      </c>
+      <c r="AO10" s="20">
+        <v>47</v>
+      </c>
+      <c r="AP10" s="20">
+        <v>35</v>
+      </c>
+      <c r="AQ10" s="20">
+        <v>58</v>
+      </c>
+      <c r="AR10" s="20">
+        <v>48</v>
+      </c>
+      <c r="AS10" s="20">
+        <v>48</v>
+      </c>
+      <c r="AT10" s="20">
+        <v>37</v>
+      </c>
+      <c r="AU10" s="20">
+        <v>47</v>
+      </c>
+      <c r="AV10" s="20">
+        <v>50</v>
+      </c>
+      <c r="AW10" s="20">
+        <v>45</v>
+      </c>
+      <c r="AX10" s="20">
+        <v>47</v>
+      </c>
+      <c r="AY10" s="20">
+        <v>34</v>
+      </c>
+      <c r="AZ10" s="20">
+        <v>79</v>
+      </c>
+      <c r="BA10" s="20">
+        <v>52</v>
+      </c>
+      <c r="BB10" s="20">
+        <v>45</v>
+      </c>
+      <c r="BC10" s="20">
+        <v>32</v>
+      </c>
+      <c r="BD10" s="20">
+        <v>17</v>
+      </c>
+      <c r="BE10" s="20">
+        <v>19</v>
+      </c>
+      <c r="BF10" s="20">
+        <v>15</v>
+      </c>
+      <c r="BG10" s="20">
+        <v>16</v>
+      </c>
+      <c r="BH10" s="20">
+        <v>18</v>
+      </c>
+      <c r="BI10" s="20">
+        <v>37</v>
+      </c>
+      <c r="BJ10" s="20">
+        <v>38</v>
+      </c>
+      <c r="BK10" s="20">
+        <v>39</v>
+      </c>
+      <c r="BL10" s="20">
+        <v>16</v>
+      </c>
+      <c r="BM10" s="20">
+        <v>107</v>
+      </c>
+      <c r="BN10" s="20">
+        <v>110</v>
+      </c>
+      <c r="BO10" s="20">
+        <v>100</v>
+      </c>
+      <c r="BP10" s="20">
+        <v>120</v>
+      </c>
+      <c r="BQ10" s="7">
+        <v>60</v>
+      </c>
+      <c r="BR10" s="7">
+        <v>91</v>
+      </c>
+      <c r="BS10" s="7">
+        <v>86</v>
+      </c>
+      <c r="BT10" s="7">
+        <v>95</v>
+      </c>
+      <c r="BU10" s="7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="20">
+        <v>120</v>
+      </c>
+      <c r="C11" s="20">
+        <v>75</v>
+      </c>
+      <c r="D11" s="20">
+        <v>115</v>
+      </c>
+      <c r="E11" s="20">
+        <v>179</v>
+      </c>
+      <c r="F11" s="20">
+        <v>110</v>
+      </c>
+      <c r="G11" s="20">
+        <v>205</v>
+      </c>
+      <c r="H11" s="20">
+        <v>213</v>
+      </c>
+      <c r="I11" s="20">
+        <v>139</v>
+      </c>
+      <c r="J11" s="20">
+        <v>122</v>
+      </c>
+      <c r="K11" s="20">
+        <v>50</v>
+      </c>
+      <c r="L11" s="20">
+        <v>52</v>
+      </c>
+      <c r="M11" s="20">
+        <v>47</v>
+      </c>
+      <c r="N11" s="20">
+        <v>62</v>
+      </c>
+      <c r="O11" s="20">
+        <v>52</v>
+      </c>
+      <c r="P11" s="20">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>54</v>
+      </c>
+      <c r="R11" s="20">
+        <v>55</v>
+      </c>
+      <c r="S11" s="20">
+        <v>45</v>
+      </c>
+      <c r="T11" s="20">
+        <v>47</v>
+      </c>
+      <c r="U11" s="20">
+        <v>45</v>
+      </c>
+      <c r="V11" s="20">
+        <v>42</v>
+      </c>
+      <c r="W11" s="20">
+        <v>67</v>
+      </c>
+      <c r="X11" s="20">
+        <v>52</v>
+      </c>
+      <c r="Y11" s="20">
+        <v>68</v>
+      </c>
+      <c r="Z11" s="20">
+        <v>76</v>
+      </c>
+      <c r="AA11" s="20">
+        <v>82</v>
+      </c>
+      <c r="AB11" s="20">
+        <v>67</v>
+      </c>
+      <c r="AC11" s="20">
+        <v>42</v>
+      </c>
+      <c r="AD11" s="20">
+        <v>35</v>
+      </c>
+      <c r="AE11" s="20">
+        <v>32</v>
+      </c>
+      <c r="AF11" s="20">
+        <v>55</v>
+      </c>
+      <c r="AG11" s="20">
+        <v>51</v>
+      </c>
+      <c r="AH11" s="20">
+        <v>104</v>
+      </c>
+      <c r="AI11" s="20">
+        <v>99</v>
+      </c>
+      <c r="AJ11" s="20">
+        <v>57</v>
+      </c>
+      <c r="AK11" s="20">
+        <v>33</v>
+      </c>
+      <c r="AL11" s="20">
+        <v>60</v>
+      </c>
+      <c r="AM11" s="20">
+        <v>55</v>
+      </c>
+      <c r="AN11" s="20">
+        <v>35</v>
+      </c>
+      <c r="AO11" s="20">
+        <v>59</v>
+      </c>
+      <c r="AP11" s="20">
+        <v>37</v>
+      </c>
+      <c r="AQ11" s="20">
+        <v>61</v>
+      </c>
+      <c r="AR11" s="20">
+        <v>62</v>
+      </c>
+      <c r="AS11" s="20">
+        <v>65</v>
+      </c>
+      <c r="AT11" s="20">
+        <v>60</v>
+      </c>
+      <c r="AU11" s="20">
+        <v>50</v>
+      </c>
+      <c r="AV11" s="20">
+        <v>49</v>
+      </c>
+      <c r="AW11" s="20">
+        <v>40</v>
+      </c>
+      <c r="AX11" s="20">
+        <v>45</v>
+      </c>
+      <c r="AY11" s="20">
+        <v>35</v>
+      </c>
+      <c r="AZ11" s="20">
+        <v>97</v>
+      </c>
+      <c r="BA11" s="20">
+        <v>77</v>
+      </c>
+      <c r="BB11" s="20">
+        <v>72</v>
+      </c>
+      <c r="BC11" s="20">
+        <v>32</v>
+      </c>
+      <c r="BD11" s="20">
+        <v>21</v>
+      </c>
+      <c r="BE11" s="20">
+        <v>25</v>
+      </c>
+      <c r="BF11" s="20">
+        <v>20</v>
+      </c>
+      <c r="BG11" s="20">
+        <v>22</v>
+      </c>
+      <c r="BH11" s="20">
+        <v>24</v>
+      </c>
+      <c r="BI11" s="20">
+        <v>35</v>
+      </c>
+      <c r="BJ11" s="20">
+        <v>37</v>
+      </c>
+      <c r="BK11" s="20">
+        <v>39</v>
+      </c>
+      <c r="BL11" s="20">
+        <v>23</v>
+      </c>
+      <c r="BM11" s="20">
+        <v>87</v>
+      </c>
+      <c r="BN11" s="20">
+        <v>85</v>
+      </c>
+      <c r="BO11" s="20">
+        <v>80</v>
+      </c>
+      <c r="BP11" s="20">
+        <v>90</v>
+      </c>
+      <c r="BQ11" s="7">
+        <v>65</v>
+      </c>
+      <c r="BR11" s="7">
+        <v>90</v>
+      </c>
+      <c r="BS11" s="7">
+        <v>85</v>
+      </c>
+      <c r="BT11" s="7">
+        <v>107</v>
+      </c>
+      <c r="BU11" s="7">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:BU11">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -13763,7 +16270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>

--- a/realme/Others/Shop wise sales report till 30 October 2021.xlsx
+++ b/realme/Others/Shop wise sales report till 30 October 2021.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="RSC" sheetId="6" r:id="rId2"/>
+    <sheet name="GRT" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="173">
   <si>
     <t>Area</t>
   </si>
@@ -497,13 +497,52 @@
   </si>
   <si>
     <t>Others Sale October</t>
+  </si>
+  <si>
+    <t>RE GR communication</t>
+  </si>
+  <si>
+    <t>Total Shop</t>
+  </si>
+  <si>
+    <t>RSC Shop</t>
+  </si>
+  <si>
+    <t>GRT Shop</t>
+  </si>
+  <si>
+    <t>Lifting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seceondary Sales </t>
+  </si>
+  <si>
+    <t>Sell Out Target</t>
+  </si>
+  <si>
+    <t>Total sale out</t>
+  </si>
+  <si>
+    <t>RSC Shop Sale Out</t>
+  </si>
+  <si>
+    <t>GRT Shop Sale Out</t>
+  </si>
+  <si>
+    <t>Daily Sale Out Expectaion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November Sale Out Expectation </t>
+  </si>
+  <si>
+    <t>1500-940</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,8 +591,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,8 +676,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -662,11 +730,188 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -772,12 +1017,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1084,9 +1414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A19" sqref="A19:XFD19"/>
+      <selection pane="topRight" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13451,13 +13781,13 @@
       <c r="CA52" s="23"/>
     </row>
     <row r="53" spans="1:79" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
       <c r="F53" s="26">
         <f t="shared" ref="F53:BU53" si="0">SUM(F2:F52)</f>
         <v>603</v>
@@ -13750,7 +14080,7 @@
       <c r="CA53" s="35"/>
     </row>
     <row r="54" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="N54" s="38">
+      <c r="N54" s="37">
         <v>887</v>
       </c>
       <c r="AT54" s="21"/>
@@ -13771,2850 +14101,811 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BY10" sqref="BY10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
-    <col min="15" max="17" width="10.140625" customWidth="1"/>
-    <col min="18" max="19" width="10.7109375" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" customWidth="1"/>
-    <col min="22" max="23" width="9.85546875" customWidth="1"/>
-    <col min="24" max="26" width="9.7109375" customWidth="1"/>
-    <col min="27" max="28" width="11" customWidth="1"/>
-    <col min="29" max="29" width="8.140625" customWidth="1"/>
-    <col min="30" max="30" width="8.42578125" customWidth="1"/>
-    <col min="31" max="31" width="8.28515625" customWidth="1"/>
-    <col min="32" max="32" width="8" customWidth="1"/>
-    <col min="33" max="35" width="7.85546875" customWidth="1"/>
-    <col min="36" max="37" width="10.85546875" customWidth="1"/>
-    <col min="38" max="38" width="13.28515625" customWidth="1"/>
-    <col min="39" max="39" width="14.140625" customWidth="1"/>
-    <col min="40" max="40" width="13.28515625" customWidth="1"/>
-    <col min="41" max="41" width="13" customWidth="1"/>
-    <col min="42" max="46" width="13.5703125" customWidth="1"/>
-    <col min="47" max="47" width="11.85546875" customWidth="1"/>
-    <col min="48" max="48" width="11.5703125" customWidth="1"/>
-    <col min="49" max="49" width="11.28515625" customWidth="1"/>
-    <col min="50" max="50" width="11.140625" customWidth="1"/>
-    <col min="51" max="55" width="10.5703125" customWidth="1"/>
-    <col min="56" max="56" width="10.7109375" customWidth="1"/>
-    <col min="57" max="57" width="10.85546875" customWidth="1"/>
-    <col min="58" max="58" width="11" customWidth="1"/>
-    <col min="59" max="59" width="10.42578125" customWidth="1"/>
-    <col min="60" max="64" width="11.42578125" customWidth="1"/>
-    <col min="65" max="65" width="12.42578125" customWidth="1"/>
-    <col min="66" max="66" width="12" customWidth="1"/>
-    <col min="67" max="67" width="12.140625" customWidth="1"/>
-    <col min="68" max="68" width="11.85546875" customWidth="1"/>
-    <col min="69" max="73" width="12" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="68" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="20">
+        <v>37</v>
+      </c>
+      <c r="D2" s="39">
+        <v>60</v>
+      </c>
+      <c r="E2" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="7">
+        <v>341005752</v>
+      </c>
+      <c r="C3" s="20">
+        <v>89</v>
+      </c>
+      <c r="D3" s="39">
+        <v>150</v>
+      </c>
+      <c r="E3" s="74">
+        <f t="shared" ref="E3:E11" si="0">D3/26</f>
+        <v>5.7692307692307692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="7">
+        <v>341004590</v>
+      </c>
+      <c r="C4" s="20">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM1" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ1" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR1" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS1" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT1" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AW1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="AX1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AZ1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="BA1" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB1" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="BC1" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="BD1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="BE1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="BF1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="BH1" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI1" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BJ1" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="BK1" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="BL1" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="BM1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="BN1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="BO1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="BP1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="D4" s="39">
+        <v>70</v>
+      </c>
+      <c r="E4" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="7">
+        <v>341002648</v>
+      </c>
+      <c r="C5" s="20">
+        <v>106</v>
+      </c>
+      <c r="D5" s="39">
+        <v>160</v>
+      </c>
+      <c r="E5" s="74">
+        <f t="shared" si="0"/>
+        <v>6.1538461538461542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="7">
+        <v>341002536</v>
+      </c>
+      <c r="C6" s="20">
+        <v>49</v>
+      </c>
+      <c r="D6" s="39">
+        <v>60</v>
+      </c>
+      <c r="E6" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="7">
+        <v>341002455</v>
+      </c>
+      <c r="C7" s="20">
+        <v>49</v>
+      </c>
+      <c r="D7" s="39">
+        <v>60</v>
+      </c>
+      <c r="E7" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="7">
+        <v>341001680</v>
+      </c>
+      <c r="C8" s="20">
+        <v>37</v>
+      </c>
+      <c r="D8" s="39">
+        <v>60</v>
+      </c>
+      <c r="E8" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="7">
+        <v>341001674</v>
+      </c>
+      <c r="C9" s="20">
         <v>46</v>
       </c>
-      <c r="BR1" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="BS1" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BT1" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU1" s="5" t="s">
-        <v>159</v>
+      <c r="D9" s="39">
+        <v>60</v>
+      </c>
+      <c r="E9" s="74">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="20">
-        <v>28</v>
-      </c>
-      <c r="C2" s="20">
-        <v>11</v>
-      </c>
-      <c r="D2" s="20">
-        <v>7</v>
-      </c>
-      <c r="E2" s="20">
-        <v>39</v>
-      </c>
-      <c r="F2" s="20">
-        <v>28</v>
-      </c>
-      <c r="G2" s="20">
-        <v>80</v>
-      </c>
-      <c r="H2" s="20">
-        <v>57</v>
-      </c>
-      <c r="I2" s="20">
-        <v>37</v>
-      </c>
-      <c r="J2" s="20">
-        <v>37</v>
-      </c>
-      <c r="K2" s="20">
-        <v>33</v>
-      </c>
-      <c r="L2" s="20">
-        <v>35</v>
-      </c>
-      <c r="M2" s="20">
-        <v>28</v>
-      </c>
-      <c r="N2" s="20">
-        <v>45</v>
-      </c>
-      <c r="O2" s="20">
-        <v>37</v>
-      </c>
-      <c r="P2" s="20">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="20">
-        <v>42</v>
-      </c>
-      <c r="R2" s="20">
-        <v>37</v>
-      </c>
-      <c r="S2" s="20">
-        <v>25</v>
-      </c>
-      <c r="T2" s="20">
-        <v>27</v>
-      </c>
-      <c r="U2" s="20">
-        <v>29</v>
-      </c>
-      <c r="V2" s="20">
-        <v>28</v>
-      </c>
-      <c r="W2" s="20">
-        <v>47</v>
-      </c>
-      <c r="X2" s="20">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="20">
-        <v>54</v>
-      </c>
-      <c r="Z2" s="20">
-        <v>63</v>
-      </c>
-      <c r="AA2" s="20">
-        <v>68</v>
-      </c>
-      <c r="AB2" s="20">
-        <v>44</v>
-      </c>
-      <c r="AC2" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="20">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="20">
-        <v>15</v>
-      </c>
-      <c r="AF2" s="20">
-        <v>17</v>
-      </c>
-      <c r="AG2" s="20">
-        <v>21</v>
-      </c>
-      <c r="AH2" s="20">
-        <v>38</v>
-      </c>
-      <c r="AI2" s="20">
-        <v>30</v>
-      </c>
-      <c r="AJ2" s="20">
-        <v>17</v>
-      </c>
-      <c r="AK2" s="20">
-        <v>16</v>
-      </c>
-      <c r="AL2" s="20">
-        <v>15</v>
-      </c>
-      <c r="AM2" s="20">
-        <v>12</v>
-      </c>
-      <c r="AN2" s="20">
-        <v>10</v>
-      </c>
-      <c r="AO2" s="20">
-        <v>17</v>
-      </c>
-      <c r="AP2" s="20">
-        <v>14</v>
-      </c>
-      <c r="AQ2" s="20">
-        <v>32</v>
-      </c>
-      <c r="AR2" s="20">
-        <v>34</v>
-      </c>
-      <c r="AS2" s="20">
-        <v>36</v>
-      </c>
-      <c r="AT2" s="20">
-        <v>15</v>
-      </c>
-      <c r="AU2" s="20">
-        <v>32</v>
-      </c>
-      <c r="AV2" s="20">
-        <v>25</v>
-      </c>
-      <c r="AW2" s="20">
-        <v>28</v>
-      </c>
-      <c r="AX2" s="20">
-        <v>27</v>
-      </c>
-      <c r="AY2" s="20">
-        <v>24</v>
-      </c>
-      <c r="AZ2" s="20">
-        <v>47</v>
-      </c>
-      <c r="BA2" s="20">
-        <v>34</v>
-      </c>
-      <c r="BB2" s="20">
-        <v>35</v>
-      </c>
-      <c r="BC2" s="20">
-        <v>27</v>
-      </c>
-      <c r="BD2" s="20">
-        <v>20</v>
-      </c>
-      <c r="BE2" s="20">
-        <v>15</v>
-      </c>
-      <c r="BF2" s="20">
-        <v>18</v>
-      </c>
-      <c r="BG2" s="20">
-        <v>18</v>
-      </c>
-      <c r="BH2" s="20">
-        <v>20</v>
-      </c>
-      <c r="BI2" s="20">
-        <v>24</v>
-      </c>
-      <c r="BJ2" s="20">
-        <v>25</v>
-      </c>
-      <c r="BK2" s="20">
-        <v>23</v>
-      </c>
-      <c r="BL2" s="20">
-        <v>20</v>
-      </c>
-      <c r="BM2" s="20">
-        <v>40</v>
-      </c>
-      <c r="BN2" s="20">
-        <v>30</v>
-      </c>
-      <c r="BO2" s="20">
-        <v>35</v>
-      </c>
-      <c r="BP2" s="20">
-        <v>47</v>
-      </c>
-      <c r="BQ2" s="7">
-        <v>32</v>
-      </c>
-      <c r="BR2" s="7">
-        <v>47</v>
-      </c>
-      <c r="BS2" s="7">
-        <v>55</v>
-      </c>
-      <c r="BT2" s="7">
-        <v>45</v>
-      </c>
-      <c r="BU2" s="7">
-        <v>30</v>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="7">
+        <v>341001667</v>
+      </c>
+      <c r="C10" s="20">
+        <v>56</v>
+      </c>
+      <c r="D10" s="39">
+        <v>60</v>
+      </c>
+      <c r="E10" s="74">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="20">
-        <v>18</v>
-      </c>
-      <c r="C3" s="20">
-        <v>18</v>
-      </c>
-      <c r="D3" s="20">
-        <v>13</v>
-      </c>
-      <c r="E3" s="20">
-        <v>11</v>
-      </c>
-      <c r="F3" s="20">
-        <v>19</v>
-      </c>
-      <c r="G3" s="20">
-        <v>25</v>
-      </c>
-      <c r="H3" s="20">
-        <v>17</v>
-      </c>
-      <c r="I3" s="20">
-        <v>38</v>
-      </c>
-      <c r="J3" s="20">
-        <v>46</v>
-      </c>
-      <c r="K3" s="20">
-        <v>40</v>
-      </c>
-      <c r="L3" s="20">
-        <v>39</v>
-      </c>
-      <c r="M3" s="20">
-        <v>30</v>
-      </c>
-      <c r="N3" s="20">
-        <v>55</v>
-      </c>
-      <c r="O3" s="20">
-        <v>42</v>
-      </c>
-      <c r="P3" s="20">
-        <v>61</v>
-      </c>
-      <c r="Q3" s="20">
-        <v>45</v>
-      </c>
-      <c r="R3" s="20">
-        <v>43</v>
-      </c>
-      <c r="S3" s="20">
-        <v>28</v>
-      </c>
-      <c r="T3" s="20">
-        <v>39</v>
-      </c>
-      <c r="U3" s="20">
-        <v>35</v>
-      </c>
-      <c r="V3" s="20">
-        <v>32</v>
-      </c>
-      <c r="W3" s="20">
-        <v>47</v>
-      </c>
-      <c r="X3" s="20">
-        <v>42</v>
-      </c>
-      <c r="Y3" s="20">
-        <v>56</v>
-      </c>
-      <c r="Z3" s="20">
-        <v>60</v>
-      </c>
-      <c r="AA3" s="20">
-        <v>65</v>
-      </c>
-      <c r="AB3" s="20">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="20">
-        <v>18</v>
-      </c>
-      <c r="AD3" s="20">
-        <v>20</v>
-      </c>
-      <c r="AE3" s="20">
-        <v>15</v>
-      </c>
-      <c r="AF3" s="20">
-        <v>19</v>
-      </c>
-      <c r="AG3" s="20">
-        <v>21</v>
-      </c>
-      <c r="AH3" s="20">
-        <v>34</v>
-      </c>
-      <c r="AI3" s="20">
-        <v>28</v>
-      </c>
-      <c r="AJ3" s="20">
-        <v>19</v>
-      </c>
-      <c r="AK3" s="20">
-        <v>17</v>
-      </c>
-      <c r="AL3" s="20">
-        <v>20</v>
-      </c>
-      <c r="AM3" s="20">
-        <v>25</v>
-      </c>
-      <c r="AN3" s="20">
-        <v>18</v>
-      </c>
-      <c r="AO3" s="20">
-        <v>29</v>
-      </c>
-      <c r="AP3" s="20">
-        <v>25</v>
-      </c>
-      <c r="AQ3" s="20">
-        <v>21</v>
-      </c>
-      <c r="AR3" s="20">
-        <v>29</v>
-      </c>
-      <c r="AS3" s="20">
-        <v>35</v>
-      </c>
-      <c r="AT3" s="20">
-        <v>23</v>
-      </c>
-      <c r="AU3" s="20">
-        <v>40</v>
-      </c>
-      <c r="AV3" s="20">
-        <v>48</v>
-      </c>
-      <c r="AW3" s="20">
-        <v>35</v>
-      </c>
-      <c r="AX3" s="20">
-        <v>45</v>
-      </c>
-      <c r="AY3" s="20">
-        <v>35</v>
-      </c>
-      <c r="AZ3" s="20">
-        <v>74</v>
-      </c>
-      <c r="BA3" s="20">
-        <v>51</v>
-      </c>
-      <c r="BB3" s="20">
-        <v>47</v>
-      </c>
-      <c r="BC3" s="20">
-        <v>34</v>
-      </c>
-      <c r="BD3" s="20">
-        <v>25</v>
-      </c>
-      <c r="BE3" s="20">
-        <v>22</v>
-      </c>
-      <c r="BF3" s="20">
-        <v>15</v>
-      </c>
-      <c r="BG3" s="20">
-        <v>16</v>
-      </c>
-      <c r="BH3" s="20">
-        <v>19</v>
-      </c>
-      <c r="BI3" s="20">
-        <v>41</v>
-      </c>
-      <c r="BJ3" s="20">
-        <v>42</v>
-      </c>
-      <c r="BK3" s="20">
-        <v>39</v>
-      </c>
-      <c r="BL3" s="20">
-        <v>25</v>
-      </c>
-      <c r="BM3" s="20">
-        <v>50</v>
-      </c>
-      <c r="BN3" s="20">
-        <v>48</v>
-      </c>
-      <c r="BO3" s="20">
-        <v>40</v>
-      </c>
-      <c r="BP3" s="20">
-        <v>45</v>
-      </c>
-      <c r="BQ3" s="7">
-        <v>35</v>
-      </c>
-      <c r="BR3" s="7">
-        <v>45</v>
-      </c>
-      <c r="BS3" s="7">
-        <v>40</v>
-      </c>
-      <c r="BT3" s="7">
-        <v>50</v>
-      </c>
-      <c r="BU3" s="7">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="20">
-        <v>35</v>
-      </c>
-      <c r="C4" s="20">
-        <v>14</v>
-      </c>
-      <c r="D4" s="20">
-        <v>10</v>
-      </c>
-      <c r="E4" s="20">
-        <v>61</v>
-      </c>
-      <c r="F4" s="20">
-        <v>35</v>
-      </c>
-      <c r="G4" s="20">
-        <v>66</v>
-      </c>
-      <c r="H4" s="20">
-        <v>52</v>
-      </c>
-      <c r="I4" s="20">
-        <v>47</v>
-      </c>
-      <c r="J4" s="20">
-        <v>49</v>
-      </c>
-      <c r="K4" s="20">
-        <v>33</v>
-      </c>
-      <c r="L4" s="20">
-        <v>32</v>
-      </c>
-      <c r="M4" s="20">
-        <v>29</v>
-      </c>
-      <c r="N4" s="20">
-        <v>40</v>
-      </c>
-      <c r="O4" s="20">
-        <v>31</v>
-      </c>
-      <c r="P4" s="20">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="20">
-        <v>37</v>
-      </c>
-      <c r="R4" s="20">
-        <v>31</v>
-      </c>
-      <c r="S4" s="20">
-        <v>27</v>
-      </c>
-      <c r="T4" s="20">
-        <v>29</v>
-      </c>
-      <c r="U4" s="20">
-        <v>27</v>
-      </c>
-      <c r="V4" s="20">
-        <v>29</v>
-      </c>
-      <c r="W4" s="20">
-        <v>47</v>
-      </c>
-      <c r="X4" s="20">
-        <v>36</v>
-      </c>
-      <c r="Y4" s="20">
-        <v>58</v>
-      </c>
-      <c r="Z4" s="20">
-        <v>69</v>
-      </c>
-      <c r="AA4" s="20">
-        <v>72</v>
-      </c>
-      <c r="AB4" s="20">
-        <v>43</v>
-      </c>
-      <c r="AC4" s="20">
-        <v>18</v>
-      </c>
-      <c r="AD4" s="20">
-        <v>19</v>
-      </c>
-      <c r="AE4" s="20">
-        <v>20</v>
-      </c>
-      <c r="AF4" s="20">
-        <v>27</v>
-      </c>
-      <c r="AG4" s="20">
-        <v>25</v>
-      </c>
-      <c r="AH4" s="20">
-        <v>48</v>
-      </c>
-      <c r="AI4" s="20">
-        <v>37</v>
-      </c>
-      <c r="AJ4" s="20">
-        <v>30</v>
-      </c>
-      <c r="AK4" s="20">
-        <v>21</v>
-      </c>
-      <c r="AL4" s="20">
-        <v>14</v>
-      </c>
-      <c r="AM4" s="20">
-        <v>12</v>
-      </c>
-      <c r="AN4" s="20">
-        <v>15</v>
-      </c>
-      <c r="AO4" s="20">
-        <v>20</v>
-      </c>
-      <c r="AP4" s="20">
-        <v>17</v>
-      </c>
-      <c r="AQ4" s="20">
-        <v>24</v>
-      </c>
-      <c r="AR4" s="20">
-        <v>25</v>
-      </c>
-      <c r="AS4" s="20">
-        <v>25</v>
-      </c>
-      <c r="AT4" s="20">
-        <v>16</v>
-      </c>
-      <c r="AU4" s="20">
-        <v>10</v>
-      </c>
-      <c r="AV4" s="20">
-        <v>11</v>
-      </c>
-      <c r="AW4" s="20">
-        <v>10</v>
-      </c>
-      <c r="AX4" s="20">
-        <v>11</v>
-      </c>
-      <c r="AY4" s="20">
-        <v>8</v>
-      </c>
-      <c r="AZ4" s="20">
-        <v>23</v>
-      </c>
-      <c r="BA4" s="20">
-        <v>17</v>
-      </c>
-      <c r="BB4" s="20">
-        <v>15</v>
-      </c>
-      <c r="BC4" s="20">
-        <v>8</v>
-      </c>
-      <c r="BD4" s="20">
-        <v>19</v>
-      </c>
-      <c r="BE4" s="20">
-        <v>20</v>
-      </c>
-      <c r="BF4" s="20">
-        <v>15</v>
-      </c>
-      <c r="BG4" s="20">
-        <v>16</v>
-      </c>
-      <c r="BH4" s="20">
-        <v>17</v>
-      </c>
-      <c r="BI4" s="20">
-        <v>27</v>
-      </c>
-      <c r="BJ4" s="20">
-        <v>30</v>
-      </c>
-      <c r="BK4" s="20">
-        <v>32</v>
-      </c>
-      <c r="BL4" s="20">
-        <v>20</v>
-      </c>
-      <c r="BM4" s="20">
-        <v>40</v>
-      </c>
-      <c r="BN4" s="20">
-        <v>40</v>
-      </c>
-      <c r="BO4" s="20">
-        <v>35</v>
-      </c>
-      <c r="BP4" s="20">
-        <v>45</v>
-      </c>
-      <c r="BQ4" s="7">
-        <v>35</v>
-      </c>
-      <c r="BR4" s="7">
-        <v>45</v>
-      </c>
-      <c r="BS4" s="7">
-        <v>45</v>
-      </c>
-      <c r="BT4" s="7">
-        <v>47</v>
-      </c>
-      <c r="BU4" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="20">
-        <v>76</v>
-      </c>
-      <c r="C5" s="20">
-        <v>68</v>
-      </c>
-      <c r="D5" s="20">
-        <v>78</v>
-      </c>
-      <c r="E5" s="20">
-        <v>125</v>
-      </c>
-      <c r="F5" s="20">
-        <v>59</v>
-      </c>
-      <c r="G5" s="20">
-        <v>123</v>
-      </c>
-      <c r="H5" s="20">
-        <v>131</v>
-      </c>
-      <c r="I5" s="20">
-        <v>70</v>
-      </c>
-      <c r="J5" s="20">
-        <v>89</v>
-      </c>
-      <c r="K5" s="20">
-        <v>40</v>
-      </c>
-      <c r="L5" s="20">
-        <v>45</v>
-      </c>
-      <c r="M5" s="20">
-        <v>30</v>
-      </c>
-      <c r="N5" s="20">
-        <v>47</v>
-      </c>
-      <c r="O5" s="20">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="20">
-        <v>42</v>
-      </c>
-      <c r="R5" s="20">
-        <v>41</v>
-      </c>
-      <c r="S5" s="20">
-        <v>28</v>
-      </c>
-      <c r="T5" s="20">
-        <v>30</v>
-      </c>
-      <c r="U5" s="20">
-        <v>20</v>
-      </c>
-      <c r="V5" s="20">
-        <v>18</v>
-      </c>
-      <c r="W5" s="20">
-        <v>45</v>
-      </c>
-      <c r="X5" s="20">
-        <v>32</v>
-      </c>
-      <c r="Y5" s="20">
-        <v>47</v>
-      </c>
-      <c r="Z5" s="20">
-        <v>56</v>
-      </c>
-      <c r="AA5" s="20">
-        <v>60</v>
-      </c>
-      <c r="AB5" s="20">
-        <v>44</v>
-      </c>
-      <c r="AC5" s="20">
-        <v>32</v>
-      </c>
-      <c r="AD5" s="20">
-        <v>35</v>
-      </c>
-      <c r="AE5" s="20">
-        <v>37</v>
-      </c>
-      <c r="AF5" s="20">
-        <v>42</v>
-      </c>
-      <c r="AG5" s="20">
-        <v>35</v>
-      </c>
-      <c r="AH5" s="20">
-        <v>47</v>
-      </c>
-      <c r="AI5" s="20">
-        <v>38</v>
-      </c>
-      <c r="AJ5" s="20">
-        <v>40</v>
-      </c>
-      <c r="AK5" s="20">
-        <v>39</v>
-      </c>
-      <c r="AL5" s="20">
-        <v>15</v>
-      </c>
-      <c r="AM5" s="20">
-        <v>13</v>
-      </c>
-      <c r="AN5" s="20">
-        <v>10</v>
-      </c>
-      <c r="AO5" s="20">
-        <v>17</v>
-      </c>
-      <c r="AP5" s="20">
-        <v>9</v>
-      </c>
-      <c r="AQ5" s="20">
-        <v>23</v>
-      </c>
-      <c r="AR5" s="20">
-        <v>24</v>
-      </c>
-      <c r="AS5" s="20">
-        <v>24</v>
-      </c>
-      <c r="AT5" s="20">
-        <v>17</v>
-      </c>
-      <c r="AU5" s="20">
-        <v>11</v>
-      </c>
-      <c r="AV5" s="20">
-        <v>14</v>
-      </c>
-      <c r="AW5" s="20">
-        <v>10</v>
-      </c>
-      <c r="AX5" s="20">
-        <v>16</v>
-      </c>
-      <c r="AY5" s="20">
-        <v>9</v>
-      </c>
-      <c r="AZ5" s="20">
-        <v>27</v>
-      </c>
-      <c r="BA5" s="20">
-        <v>17</v>
-      </c>
-      <c r="BB5" s="20">
-        <v>17</v>
-      </c>
-      <c r="BC5" s="20">
-        <v>14</v>
-      </c>
-      <c r="BD5" s="20">
-        <v>17</v>
-      </c>
-      <c r="BE5" s="20">
-        <v>15</v>
-      </c>
-      <c r="BF5" s="20">
-        <v>17</v>
-      </c>
-      <c r="BG5" s="20">
-        <v>10</v>
-      </c>
-      <c r="BH5" s="20">
-        <v>12</v>
-      </c>
-      <c r="BI5" s="20">
-        <v>32</v>
-      </c>
-      <c r="BJ5" s="20">
-        <v>34</v>
-      </c>
-      <c r="BK5" s="20">
-        <v>33</v>
-      </c>
-      <c r="BL5" s="20">
-        <v>19</v>
-      </c>
-      <c r="BM5" s="20">
-        <v>55</v>
-      </c>
-      <c r="BN5" s="20">
-        <v>50</v>
-      </c>
-      <c r="BO5" s="20">
-        <v>40</v>
-      </c>
-      <c r="BP5" s="20">
-        <v>45</v>
-      </c>
-      <c r="BQ5" s="7">
-        <v>38</v>
-      </c>
-      <c r="BR5" s="7">
-        <v>45</v>
-      </c>
-      <c r="BS5" s="7">
-        <v>60</v>
-      </c>
-      <c r="BT5" s="7">
-        <v>45</v>
-      </c>
-      <c r="BU5" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="20">
-        <v>15</v>
-      </c>
-      <c r="C6" s="20">
-        <v>15</v>
-      </c>
-      <c r="D6" s="20">
-        <v>14</v>
-      </c>
-      <c r="E6" s="20">
-        <v>61</v>
-      </c>
-      <c r="F6" s="20">
-        <v>52</v>
-      </c>
-      <c r="G6" s="20">
-        <v>67</v>
-      </c>
-      <c r="H6" s="20">
-        <v>69</v>
-      </c>
-      <c r="I6" s="20">
-        <v>37</v>
-      </c>
-      <c r="J6" s="20">
-        <v>49</v>
-      </c>
-      <c r="K6" s="20">
-        <v>28</v>
-      </c>
-      <c r="L6" s="20">
-        <v>24</v>
-      </c>
-      <c r="M6" s="20">
-        <v>21</v>
-      </c>
-      <c r="N6" s="20">
-        <v>42</v>
-      </c>
-      <c r="O6" s="20">
-        <v>29</v>
-      </c>
-      <c r="P6" s="20">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>39</v>
-      </c>
-      <c r="R6" s="20">
-        <v>29</v>
-      </c>
-      <c r="S6" s="20">
-        <v>18</v>
-      </c>
-      <c r="T6" s="20">
-        <v>28</v>
-      </c>
-      <c r="U6" s="20">
-        <v>30</v>
-      </c>
-      <c r="V6" s="20">
-        <v>27</v>
-      </c>
-      <c r="W6" s="20">
-        <v>47</v>
-      </c>
-      <c r="X6" s="20">
-        <v>34</v>
-      </c>
-      <c r="Y6" s="20">
-        <v>59</v>
-      </c>
-      <c r="Z6" s="20">
-        <v>64</v>
-      </c>
-      <c r="AA6" s="20">
-        <v>68</v>
-      </c>
-      <c r="AB6" s="20">
-        <v>45</v>
-      </c>
-      <c r="AC6" s="20">
-        <v>18</v>
-      </c>
-      <c r="AD6" s="20">
-        <v>15</v>
-      </c>
-      <c r="AE6" s="20">
-        <v>20</v>
-      </c>
-      <c r="AF6" s="20">
-        <v>25</v>
-      </c>
-      <c r="AG6" s="20">
-        <v>29</v>
-      </c>
-      <c r="AH6" s="20">
-        <v>45</v>
-      </c>
-      <c r="AI6" s="20">
-        <v>37</v>
-      </c>
-      <c r="AJ6" s="20">
-        <v>27</v>
-      </c>
-      <c r="AK6" s="20">
-        <v>22</v>
-      </c>
-      <c r="AL6" s="20">
-        <v>28</v>
-      </c>
-      <c r="AM6" s="20">
-        <v>23</v>
-      </c>
-      <c r="AN6" s="20">
-        <v>25</v>
-      </c>
-      <c r="AO6" s="20">
-        <v>35</v>
-      </c>
-      <c r="AP6" s="20">
-        <v>20</v>
-      </c>
-      <c r="AQ6" s="20">
-        <v>47</v>
-      </c>
-      <c r="AR6" s="20">
-        <v>50</v>
-      </c>
-      <c r="AS6" s="20">
-        <v>52</v>
-      </c>
-      <c r="AT6" s="20">
-        <v>30</v>
-      </c>
-      <c r="AU6" s="20">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="20">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="20">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="20">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="20">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="20">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="20">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="20">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="20">
-        <v>5</v>
-      </c>
-      <c r="BE6" s="20">
-        <v>3</v>
-      </c>
-      <c r="BF6" s="20">
-        <v>5</v>
-      </c>
-      <c r="BG6" s="20">
-        <v>5</v>
-      </c>
-      <c r="BH6" s="20">
-        <v>7</v>
-      </c>
-      <c r="BI6" s="20">
-        <v>9</v>
-      </c>
-      <c r="BJ6" s="20">
-        <v>10</v>
-      </c>
-      <c r="BK6" s="20">
-        <v>12</v>
-      </c>
-      <c r="BL6" s="20">
-        <v>7</v>
-      </c>
-      <c r="BM6" s="20">
-        <v>42</v>
-      </c>
-      <c r="BN6" s="20">
-        <v>55</v>
-      </c>
-      <c r="BO6" s="20">
-        <v>65</v>
-      </c>
-      <c r="BP6" s="20">
-        <v>67</v>
-      </c>
-      <c r="BQ6" s="7">
-        <v>55</v>
-      </c>
-      <c r="BR6" s="7">
-        <v>67</v>
-      </c>
-      <c r="BS6" s="7">
-        <v>60</v>
-      </c>
-      <c r="BT6" s="7">
-        <v>65</v>
-      </c>
-      <c r="BU6" s="7">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="20">
-        <v>0</v>
-      </c>
-      <c r="C7" s="20">
-        <v>0</v>
-      </c>
-      <c r="D7" s="20">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20">
-        <v>50</v>
-      </c>
-      <c r="F7" s="20">
-        <v>20</v>
-      </c>
-      <c r="G7" s="20">
-        <v>52</v>
-      </c>
-      <c r="H7" s="20">
-        <v>45</v>
-      </c>
-      <c r="I7" s="20">
-        <v>35</v>
-      </c>
-      <c r="J7" s="20">
-        <v>37</v>
-      </c>
-      <c r="K7" s="20">
-        <v>22</v>
-      </c>
-      <c r="L7" s="20">
-        <v>18</v>
-      </c>
-      <c r="M7" s="20">
-        <v>7</v>
-      </c>
-      <c r="N7" s="20">
-        <v>31</v>
-      </c>
-      <c r="O7" s="20">
-        <v>15</v>
-      </c>
-      <c r="P7" s="20">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="20">
-        <v>26</v>
-      </c>
-      <c r="R7" s="20">
-        <v>17</v>
-      </c>
-      <c r="S7" s="20">
-        <v>7</v>
-      </c>
-      <c r="T7" s="20">
-        <v>11</v>
-      </c>
-      <c r="U7" s="20">
-        <v>8</v>
-      </c>
-      <c r="V7" s="20">
-        <v>10</v>
-      </c>
-      <c r="W7" s="20">
-        <v>15</v>
-      </c>
-      <c r="X7" s="20">
-        <v>10</v>
-      </c>
-      <c r="Y7" s="20">
-        <v>19</v>
-      </c>
-      <c r="Z7" s="20">
-        <v>27</v>
-      </c>
-      <c r="AA7" s="20">
-        <v>32</v>
-      </c>
-      <c r="AB7" s="20">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="20">
-        <v>8</v>
-      </c>
-      <c r="AD7" s="20">
-        <v>5</v>
-      </c>
-      <c r="AE7" s="20">
-        <v>5</v>
-      </c>
-      <c r="AF7" s="20">
-        <v>9</v>
-      </c>
-      <c r="AG7" s="20">
-        <v>13</v>
-      </c>
-      <c r="AH7" s="20">
-        <v>18</v>
-      </c>
-      <c r="AI7" s="20">
-        <v>12</v>
-      </c>
-      <c r="AJ7" s="20">
-        <v>10</v>
-      </c>
-      <c r="AK7" s="20">
-        <v>6</v>
-      </c>
-      <c r="AL7" s="20">
-        <v>7</v>
-      </c>
-      <c r="AM7" s="20">
-        <v>5</v>
-      </c>
-      <c r="AN7" s="20">
-        <v>6</v>
-      </c>
-      <c r="AO7" s="20">
-        <v>9</v>
-      </c>
-      <c r="AP7" s="20">
-        <v>4</v>
-      </c>
-      <c r="AQ7" s="20">
-        <v>15</v>
-      </c>
-      <c r="AR7" s="20">
-        <v>14</v>
-      </c>
-      <c r="AS7" s="20">
-        <v>15</v>
-      </c>
-      <c r="AT7" s="20">
-        <v>7</v>
-      </c>
-      <c r="AU7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="20">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="20">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="20">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="20">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="20">
-        <v>19</v>
-      </c>
-      <c r="BE7" s="20">
-        <v>19</v>
-      </c>
-      <c r="BF7" s="20">
-        <v>25</v>
-      </c>
-      <c r="BG7" s="20">
-        <v>13</v>
-      </c>
-      <c r="BH7" s="20">
-        <v>14</v>
-      </c>
-      <c r="BI7" s="20">
-        <v>27</v>
-      </c>
-      <c r="BJ7" s="20">
-        <v>28</v>
-      </c>
-      <c r="BK7" s="20">
-        <v>30</v>
-      </c>
-      <c r="BL7" s="20">
-        <v>19</v>
-      </c>
-      <c r="BM7" s="20">
-        <v>22</v>
-      </c>
-      <c r="BN7" s="20">
-        <v>19</v>
-      </c>
-      <c r="BO7" s="20">
-        <v>20</v>
-      </c>
-      <c r="BP7" s="20">
-        <v>22</v>
-      </c>
-      <c r="BQ7" s="7">
-        <v>18</v>
-      </c>
-      <c r="BR7" s="7">
-        <v>27</v>
-      </c>
-      <c r="BS7" s="7">
-        <v>31</v>
-      </c>
-      <c r="BT7" s="7">
-        <v>28</v>
-      </c>
-      <c r="BU7" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="20">
-        <v>22</v>
-      </c>
-      <c r="C8" s="20">
-        <v>20</v>
-      </c>
-      <c r="D8" s="20">
-        <v>8</v>
-      </c>
-      <c r="E8" s="20">
-        <v>38</v>
-      </c>
-      <c r="F8" s="20">
-        <v>25</v>
-      </c>
-      <c r="G8" s="20">
-        <v>51</v>
-      </c>
-      <c r="H8" s="20">
-        <v>55</v>
-      </c>
-      <c r="I8" s="20">
-        <v>65</v>
-      </c>
-      <c r="J8" s="20">
-        <v>56</v>
-      </c>
-      <c r="K8" s="20">
-        <v>20</v>
-      </c>
-      <c r="L8" s="20">
-        <v>22</v>
-      </c>
-      <c r="M8" s="20">
-        <v>19</v>
-      </c>
-      <c r="N8" s="20">
-        <v>35</v>
-      </c>
-      <c r="O8" s="20">
-        <v>27</v>
-      </c>
-      <c r="P8" s="20">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>34</v>
-      </c>
-      <c r="R8" s="20">
-        <v>29</v>
-      </c>
-      <c r="S8" s="20">
-        <v>17</v>
-      </c>
-      <c r="T8" s="20">
-        <v>0</v>
-      </c>
-      <c r="U8" s="20">
-        <v>0</v>
-      </c>
-      <c r="V8" s="20">
-        <v>0</v>
-      </c>
-      <c r="W8" s="20">
-        <v>0</v>
-      </c>
-      <c r="X8" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="20">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="20">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="20">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="20">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="20">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="20">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="20">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="20">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="20">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="20">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="20">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="20">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="20">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="20">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="20">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="20">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="20"/>
-      <c r="BQ8" s="7">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="7"/>
-      <c r="BS8" s="7"/>
-      <c r="BT8" s="7"/>
-      <c r="BU8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="20">
-        <v>26</v>
-      </c>
-      <c r="C9" s="20">
-        <v>30</v>
-      </c>
-      <c r="D9" s="20">
-        <v>31</v>
-      </c>
-      <c r="E9" s="20">
-        <v>50</v>
-      </c>
-      <c r="F9" s="20">
-        <v>65</v>
-      </c>
-      <c r="G9" s="20">
-        <v>80</v>
-      </c>
-      <c r="H9" s="20">
-        <v>65</v>
-      </c>
-      <c r="I9" s="20">
-        <v>43</v>
-      </c>
-      <c r="J9" s="20">
-        <v>39</v>
-      </c>
-      <c r="K9" s="20">
-        <v>50</v>
-      </c>
-      <c r="L9" s="20">
-        <v>52</v>
-      </c>
-      <c r="M9" s="20">
-        <v>50</v>
-      </c>
-      <c r="N9" s="20">
-        <v>59</v>
-      </c>
-      <c r="O9" s="20">
-        <v>51</v>
-      </c>
-      <c r="P9" s="20">
-        <v>61</v>
-      </c>
-      <c r="Q9" s="20">
-        <v>54</v>
-      </c>
-      <c r="R9" s="20">
-        <v>45</v>
-      </c>
-      <c r="S9" s="20">
-        <v>43</v>
-      </c>
-      <c r="T9" s="20">
-        <v>53</v>
-      </c>
-      <c r="U9" s="20">
-        <v>55</v>
-      </c>
-      <c r="V9" s="20">
-        <v>45</v>
-      </c>
-      <c r="W9" s="20">
-        <v>67</v>
-      </c>
-      <c r="X9" s="20">
-        <v>52</v>
-      </c>
-      <c r="Y9" s="20">
-        <v>75</v>
-      </c>
-      <c r="Z9" s="20">
-        <v>84</v>
-      </c>
-      <c r="AA9" s="20">
-        <v>85</v>
-      </c>
-      <c r="AB9" s="20">
-        <v>65</v>
-      </c>
-      <c r="AC9" s="20">
-        <v>17</v>
-      </c>
-      <c r="AD9" s="20">
-        <v>15</v>
-      </c>
-      <c r="AE9" s="20">
-        <v>14</v>
-      </c>
-      <c r="AF9" s="20">
-        <v>19</v>
-      </c>
-      <c r="AG9" s="20">
-        <v>16</v>
-      </c>
-      <c r="AH9" s="20">
-        <v>28</v>
-      </c>
-      <c r="AI9" s="20">
-        <v>20</v>
-      </c>
-      <c r="AJ9" s="20">
-        <v>22</v>
-      </c>
-      <c r="AK9" s="20">
-        <v>15</v>
-      </c>
-      <c r="AL9" s="20">
-        <v>18</v>
-      </c>
-      <c r="AM9" s="20">
-        <v>16</v>
-      </c>
-      <c r="AN9" s="20">
-        <v>15</v>
-      </c>
-      <c r="AO9" s="20">
-        <v>19</v>
-      </c>
-      <c r="AP9" s="20">
-        <v>17</v>
-      </c>
-      <c r="AQ9" s="20">
-        <v>24</v>
-      </c>
-      <c r="AR9" s="20">
-        <v>21</v>
-      </c>
-      <c r="AS9" s="20">
-        <v>21</v>
-      </c>
-      <c r="AT9" s="20">
-        <v>17</v>
-      </c>
-      <c r="AU9" s="20">
-        <v>30</v>
-      </c>
-      <c r="AV9" s="20">
-        <v>40</v>
-      </c>
-      <c r="AW9" s="20">
-        <v>37</v>
-      </c>
-      <c r="AX9" s="20">
-        <v>42</v>
-      </c>
-      <c r="AY9" s="20">
-        <v>32</v>
-      </c>
-      <c r="AZ9" s="20">
-        <v>56</v>
-      </c>
-      <c r="BA9" s="20">
-        <v>35</v>
-      </c>
-      <c r="BB9" s="20">
-        <v>34</v>
-      </c>
-      <c r="BC9" s="20">
-        <v>29</v>
-      </c>
-      <c r="BD9" s="20">
-        <v>16</v>
-      </c>
-      <c r="BE9" s="20">
-        <v>17</v>
-      </c>
-      <c r="BF9" s="20">
-        <v>10</v>
-      </c>
-      <c r="BG9" s="20">
-        <v>11</v>
-      </c>
-      <c r="BH9" s="20">
-        <v>13</v>
-      </c>
-      <c r="BI9" s="20">
-        <v>24</v>
-      </c>
-      <c r="BJ9" s="20">
-        <v>25</v>
-      </c>
-      <c r="BK9" s="20">
-        <v>27</v>
-      </c>
-      <c r="BL9" s="20">
-        <v>16</v>
-      </c>
-      <c r="BM9" s="20">
-        <v>45</v>
-      </c>
-      <c r="BN9" s="20">
-        <v>50</v>
-      </c>
-      <c r="BO9" s="20">
-        <v>40</v>
-      </c>
-      <c r="BP9" s="20">
-        <v>47</v>
-      </c>
-      <c r="BQ9" s="7">
-        <v>35</v>
-      </c>
-      <c r="BR9" s="7">
-        <v>51</v>
-      </c>
-      <c r="BS9" s="7">
-        <v>47</v>
-      </c>
-      <c r="BT9" s="7">
-        <v>54</v>
-      </c>
-      <c r="BU9" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="20">
-        <v>57</v>
-      </c>
-      <c r="C10" s="20">
-        <v>77</v>
-      </c>
-      <c r="D10" s="20">
-        <v>79</v>
-      </c>
-      <c r="E10" s="20">
-        <v>158</v>
-      </c>
-      <c r="F10" s="20">
-        <v>65</v>
-      </c>
-      <c r="G10" s="20">
-        <v>163</v>
-      </c>
-      <c r="H10" s="20">
-        <v>162</v>
-      </c>
-      <c r="I10" s="20">
-        <v>107</v>
-      </c>
-      <c r="J10" s="20">
-        <v>106</v>
-      </c>
-      <c r="K10" s="20">
-        <v>60</v>
-      </c>
-      <c r="L10" s="20">
-        <v>52</v>
-      </c>
-      <c r="M10" s="20">
-        <v>60</v>
-      </c>
-      <c r="N10" s="20">
-        <v>75</v>
-      </c>
-      <c r="O10" s="20">
-        <v>62</v>
-      </c>
-      <c r="P10" s="20">
-        <v>79</v>
-      </c>
-      <c r="Q10" s="20">
-        <v>69</v>
-      </c>
-      <c r="R10" s="20">
-        <v>63</v>
-      </c>
-      <c r="S10" s="20">
-        <v>55</v>
-      </c>
-      <c r="T10" s="20">
-        <v>15</v>
-      </c>
-      <c r="U10" s="20">
-        <v>12</v>
-      </c>
-      <c r="V10" s="20">
-        <v>13</v>
-      </c>
-      <c r="W10" s="20">
-        <v>32</v>
-      </c>
-      <c r="X10" s="20">
-        <v>19</v>
-      </c>
-      <c r="Y10" s="20">
-        <v>37</v>
-      </c>
-      <c r="Z10" s="20">
-        <v>48</v>
-      </c>
-      <c r="AA10" s="20">
-        <v>52</v>
-      </c>
-      <c r="AB10" s="20">
-        <v>30</v>
-      </c>
-      <c r="AC10" s="20">
-        <v>31</v>
-      </c>
-      <c r="AD10" s="20">
-        <v>35</v>
-      </c>
-      <c r="AE10" s="20">
-        <v>30</v>
-      </c>
-      <c r="AF10" s="20">
-        <v>34</v>
-      </c>
-      <c r="AG10" s="20">
-        <v>31</v>
-      </c>
-      <c r="AH10" s="20">
-        <v>62</v>
-      </c>
-      <c r="AI10" s="20">
-        <v>48</v>
-      </c>
-      <c r="AJ10" s="20">
-        <v>35</v>
-      </c>
-      <c r="AK10" s="20">
-        <v>32</v>
-      </c>
-      <c r="AL10" s="20">
-        <v>40</v>
-      </c>
-      <c r="AM10" s="20">
-        <v>35</v>
-      </c>
-      <c r="AN10" s="20">
-        <v>30</v>
-      </c>
-      <c r="AO10" s="20">
-        <v>47</v>
-      </c>
-      <c r="AP10" s="20">
-        <v>35</v>
-      </c>
-      <c r="AQ10" s="20">
-        <v>58</v>
-      </c>
-      <c r="AR10" s="20">
-        <v>48</v>
-      </c>
-      <c r="AS10" s="20">
-        <v>48</v>
-      </c>
-      <c r="AT10" s="20">
-        <v>37</v>
-      </c>
-      <c r="AU10" s="20">
-        <v>47</v>
-      </c>
-      <c r="AV10" s="20">
-        <v>50</v>
-      </c>
-      <c r="AW10" s="20">
-        <v>45</v>
-      </c>
-      <c r="AX10" s="20">
-        <v>47</v>
-      </c>
-      <c r="AY10" s="20">
-        <v>34</v>
-      </c>
-      <c r="AZ10" s="20">
-        <v>79</v>
-      </c>
-      <c r="BA10" s="20">
-        <v>52</v>
-      </c>
-      <c r="BB10" s="20">
-        <v>45</v>
-      </c>
-      <c r="BC10" s="20">
-        <v>32</v>
-      </c>
-      <c r="BD10" s="20">
-        <v>17</v>
-      </c>
-      <c r="BE10" s="20">
-        <v>19</v>
-      </c>
-      <c r="BF10" s="20">
-        <v>15</v>
-      </c>
-      <c r="BG10" s="20">
-        <v>16</v>
-      </c>
-      <c r="BH10" s="20">
-        <v>18</v>
-      </c>
-      <c r="BI10" s="20">
-        <v>37</v>
-      </c>
-      <c r="BJ10" s="20">
-        <v>38</v>
-      </c>
-      <c r="BK10" s="20">
-        <v>39</v>
-      </c>
-      <c r="BL10" s="20">
-        <v>16</v>
-      </c>
-      <c r="BM10" s="20">
-        <v>107</v>
-      </c>
-      <c r="BN10" s="20">
-        <v>110</v>
-      </c>
-      <c r="BO10" s="20">
-        <v>100</v>
-      </c>
-      <c r="BP10" s="20">
-        <v>120</v>
-      </c>
-      <c r="BQ10" s="7">
-        <v>60</v>
-      </c>
-      <c r="BR10" s="7">
-        <v>91</v>
-      </c>
-      <c r="BS10" s="7">
-        <v>86</v>
-      </c>
-      <c r="BT10" s="7">
-        <v>95</v>
-      </c>
-      <c r="BU10" s="7">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="20">
-        <v>120</v>
+      <c r="B11" s="7">
+        <v>341000601</v>
       </c>
       <c r="C11" s="20">
-        <v>75</v>
-      </c>
-      <c r="D11" s="20">
-        <v>115</v>
-      </c>
-      <c r="E11" s="20">
-        <v>179</v>
-      </c>
-      <c r="F11" s="20">
-        <v>110</v>
-      </c>
-      <c r="G11" s="20">
-        <v>205</v>
-      </c>
-      <c r="H11" s="20">
-        <v>213</v>
-      </c>
-      <c r="I11" s="20">
-        <v>139</v>
-      </c>
-      <c r="J11" s="20">
         <v>122</v>
       </c>
-      <c r="K11" s="20">
-        <v>50</v>
-      </c>
-      <c r="L11" s="20">
-        <v>52</v>
-      </c>
-      <c r="M11" s="20">
-        <v>47</v>
-      </c>
-      <c r="N11" s="20">
-        <v>62</v>
-      </c>
-      <c r="O11" s="20">
-        <v>52</v>
-      </c>
-      <c r="P11" s="20">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="20">
-        <v>54</v>
-      </c>
-      <c r="R11" s="20">
-        <v>55</v>
-      </c>
-      <c r="S11" s="20">
-        <v>45</v>
-      </c>
-      <c r="T11" s="20">
-        <v>47</v>
-      </c>
-      <c r="U11" s="20">
-        <v>45</v>
-      </c>
-      <c r="V11" s="20">
-        <v>42</v>
-      </c>
-      <c r="W11" s="20">
-        <v>67</v>
-      </c>
-      <c r="X11" s="20">
-        <v>52</v>
-      </c>
-      <c r="Y11" s="20">
-        <v>68</v>
-      </c>
-      <c r="Z11" s="20">
-        <v>76</v>
-      </c>
-      <c r="AA11" s="20">
-        <v>82</v>
-      </c>
-      <c r="AB11" s="20">
-        <v>67</v>
-      </c>
-      <c r="AC11" s="20">
-        <v>42</v>
-      </c>
-      <c r="AD11" s="20">
-        <v>35</v>
-      </c>
-      <c r="AE11" s="20">
-        <v>32</v>
-      </c>
-      <c r="AF11" s="20">
-        <v>55</v>
-      </c>
-      <c r="AG11" s="20">
-        <v>51</v>
-      </c>
-      <c r="AH11" s="20">
-        <v>104</v>
-      </c>
-      <c r="AI11" s="20">
-        <v>99</v>
-      </c>
-      <c r="AJ11" s="20">
-        <v>57</v>
-      </c>
-      <c r="AK11" s="20">
-        <v>33</v>
-      </c>
-      <c r="AL11" s="20">
-        <v>60</v>
-      </c>
-      <c r="AM11" s="20">
-        <v>55</v>
-      </c>
-      <c r="AN11" s="20">
-        <v>35</v>
-      </c>
-      <c r="AO11" s="20">
-        <v>59</v>
-      </c>
-      <c r="AP11" s="20">
-        <v>37</v>
-      </c>
-      <c r="AQ11" s="20">
-        <v>61</v>
-      </c>
-      <c r="AR11" s="20">
-        <v>62</v>
-      </c>
-      <c r="AS11" s="20">
-        <v>65</v>
-      </c>
-      <c r="AT11" s="20">
-        <v>60</v>
-      </c>
-      <c r="AU11" s="20">
-        <v>50</v>
-      </c>
-      <c r="AV11" s="20">
-        <v>49</v>
-      </c>
-      <c r="AW11" s="20">
-        <v>40</v>
-      </c>
-      <c r="AX11" s="20">
-        <v>45</v>
-      </c>
-      <c r="AY11" s="20">
-        <v>35</v>
-      </c>
-      <c r="AZ11" s="20">
-        <v>97</v>
-      </c>
-      <c r="BA11" s="20">
-        <v>77</v>
-      </c>
-      <c r="BB11" s="20">
-        <v>72</v>
-      </c>
-      <c r="BC11" s="20">
-        <v>32</v>
-      </c>
-      <c r="BD11" s="20">
-        <v>21</v>
-      </c>
-      <c r="BE11" s="20">
-        <v>25</v>
-      </c>
-      <c r="BF11" s="20">
-        <v>20</v>
-      </c>
-      <c r="BG11" s="20">
-        <v>22</v>
-      </c>
-      <c r="BH11" s="20">
-        <v>24</v>
-      </c>
-      <c r="BI11" s="20">
-        <v>35</v>
-      </c>
-      <c r="BJ11" s="20">
-        <v>37</v>
-      </c>
-      <c r="BK11" s="20">
-        <v>39</v>
-      </c>
-      <c r="BL11" s="20">
-        <v>23</v>
-      </c>
-      <c r="BM11" s="20">
-        <v>87</v>
-      </c>
-      <c r="BN11" s="20">
-        <v>85</v>
-      </c>
-      <c r="BO11" s="20">
-        <v>80</v>
-      </c>
-      <c r="BP11" s="20">
-        <v>90</v>
-      </c>
-      <c r="BQ11" s="7">
-        <v>65</v>
-      </c>
-      <c r="BR11" s="7">
-        <v>90</v>
-      </c>
-      <c r="BS11" s="7">
-        <v>85</v>
-      </c>
-      <c r="BT11" s="7">
-        <v>107</v>
-      </c>
-      <c r="BU11" s="7">
-        <v>125</v>
+      <c r="D11" s="39">
+        <v>200</v>
+      </c>
+      <c r="E11" s="74">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="73"/>
+      <c r="C12" s="71">
+        <f>SUM(C2:C11)</f>
+        <v>630</v>
+      </c>
+      <c r="D12" s="70">
+        <f>SUM(D2:D11)</f>
+        <v>940</v>
+      </c>
+      <c r="E12" s="75">
+        <f>SUM(E2:E11)</f>
+        <v>40.615384615384613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f>1500-940</f>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:BU11">
-    <sortCondition ref="A2"/>
-  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="19">
+        <v>34</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="19">
+        <v>14</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="43">
+        <v>6</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="60">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="19">
+        <v>5</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="43">
+        <v>6</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" s="61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="19">
+        <v>9</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="11">
+        <v>341001680</v>
+      </c>
+      <c r="G7" s="44">
+        <v>37</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="61">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="19">
+        <v>5</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="8">
+        <v>341001677</v>
+      </c>
+      <c r="G8" s="44">
+        <v>3</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="J8" s="61">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="19">
+        <v>6</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="9">
+        <v>341001674</v>
+      </c>
+      <c r="G9" s="44">
+        <v>46</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" s="61">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="8">
+        <v>341002455</v>
+      </c>
+      <c r="G10" s="44">
+        <v>49</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" s="61">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="19">
+        <v>5</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="43">
+        <v>14</v>
+      </c>
+      <c r="I11" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="62">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="20">
+        <v>10</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="7">
+        <v>341001667</v>
+      </c>
+      <c r="G12" s="43">
+        <v>56</v>
+      </c>
+      <c r="I12" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="61">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="20">
+        <v>9</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="43">
+        <v>13</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" s="63">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="20">
+        <v>37</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7">
+        <v>341001668</v>
+      </c>
+      <c r="G14" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="7">
+        <v>341005752</v>
+      </c>
+      <c r="C15" s="20">
+        <v>89</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="7">
+        <v>341005751</v>
+      </c>
+      <c r="C16" s="20">
+        <v>5</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="7">
+        <v>341005750</v>
+      </c>
+      <c r="C17" s="20">
+        <v>3</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="8">
+        <v>341002457</v>
+      </c>
+      <c r="G17" s="44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="7">
+        <v>341005749</v>
+      </c>
+      <c r="C18" s="20">
+        <v>3</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="7">
+        <v>341004590</v>
+      </c>
+      <c r="C19" s="20">
+        <v>39</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="9">
+        <v>341001676</v>
+      </c>
+      <c r="G19" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="7">
+        <v>341004038</v>
+      </c>
+      <c r="C20" s="20">
+        <v>9</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="7">
+        <v>341000601</v>
+      </c>
+      <c r="G20" s="43">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="7">
+        <v>341002648</v>
+      </c>
+      <c r="C21" s="20">
+        <v>106</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="7">
+        <v>341002539</v>
+      </c>
+      <c r="C22" s="20">
+        <v>4</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="8">
+        <v>341002536</v>
+      </c>
+      <c r="C23" s="19">
+        <v>49</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="48">
+        <v>341002458</v>
+      </c>
+      <c r="C24" s="49">
+        <v>14</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+    </row>
+  </sheetData>
+  <sortState ref="E2:G23">
+    <sortCondition ref="E2"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="7">
-        <v>341005752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="7">
-        <v>341005751</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="7">
-        <v>341005750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="7">
-        <v>341005749</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="7">
-        <v>341004590</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="7">
-        <v>341004038</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="7">
-        <v>341002648</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="7">
-        <v>341002539</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="7">
-        <v>341002536</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="7">
-        <v>341002458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="7">
-        <v>341002457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="7">
-        <v>341002455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="7">
-        <v>341001680</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="7">
-        <v>341001677</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="7">
-        <v>341001676</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="7">
-        <v>341001674</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="7">
-        <v>341001668</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="7">
-        <v>341001667</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="7">
-        <v>341000601</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="110" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>